--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
@@ -275,10 +275,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$59</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$22</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$43</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$57</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$20</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$41</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$66</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -313,7 +313,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$18</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1003,26 +1003,57 @@
 - Display text, textbox, button, color, background and arrangement</t>
   </si>
   <si>
-    <t xml:space="preserve">- Items: readings link
+    <t>Choose the reading</t>
+  </si>
+  <si>
+    <t>Choose reading</t>
+  </si>
+  <si>
+    <t>Click the reading's link</t>
+  </si>
+  <si>
+    <t>Display reading's content</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Reading Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Items: 
++ N3's reading link
++ N2's reading link
 </t>
   </si>
   <si>
-    <t>Choose the reading</t>
-  </si>
-  <si>
-    <t>Choose reading</t>
-  </si>
-  <si>
-    <t>Click the reading's link</t>
-  </si>
-  <si>
-    <t>Display reading's content</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Reading Screen</t>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>Content of reading page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Items: 
++ Back link
++ Reading lesson field
++ Question field
++ Answer field
+</t>
+  </si>
+  <si>
+    <t>1.2.2.2</t>
+  </si>
+  <si>
+    <t>Reading is displayed</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Display answer of question</t>
+  </si>
+  <si>
+    <t>Click "Đáp án" section</t>
   </si>
 </sst>
 </file>
@@ -3019,6 +3050,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3036,27 +3088,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3455,16 +3486,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3488,7 +3519,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2381250" y="666750"/>
+          <a:off x="180975" y="581025"/>
           <a:ext cx="5276850" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3515,6 +3546,61 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5886450" y="323850"/>
+          <a:ext cx="6124575" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -6227,14 +6313,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6249,12 +6335,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6266,12 +6352,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6280,15 +6366,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6297,11 +6383,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6324,10 +6410,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6345,10 +6431,10 @@
       <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6362,8 +6448,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6371,8 +6457,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6380,8 +6466,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6389,8 +6475,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6398,8 +6484,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6407,8 +6493,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6416,12 +6502,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6429,6 +6509,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6442,10 +6528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6566,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6641,7 +6727,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="27">
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -6666,144 +6752,174 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="44" customFormat="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="44" customFormat="1" ht="94.5">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="44" customFormat="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-    </row>
-    <row r="12" spans="1:12" s="44" customFormat="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="55"/>
-    </row>
-    <row r="13" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" s="44" customFormat="1">
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="55"/>
-    </row>
-    <row r="15" spans="1:12" s="44" customFormat="1">
+        <v>45</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="55"/>
+    </row>
+    <row r="16" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="49" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I16" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J16" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="56"/>
-    </row>
-    <row r="16" spans="1:12" s="44" customFormat="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-    </row>
-    <row r="17" spans="1:12" s="44" customFormat="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="72"/>
+      <c r="K16" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1">
       <c r="A18" s="64"/>
@@ -6819,7 +6935,7 @@
       <c r="K18" s="66"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+    <row r="19" spans="1:12" s="44" customFormat="1">
       <c r="A19" s="64"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
@@ -6831,23 +6947,23 @@
       <c r="I19" s="67"/>
       <c r="J19" s="68"/>
       <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="72"/>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1">
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A21" s="64"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -6859,25 +6975,25 @@
       <c r="I21" s="67"/>
       <c r="J21" s="68"/>
       <c r="K21" s="66"/>
-      <c r="L21" s="72"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="72"/>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1">
       <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="66"/>
@@ -6887,16 +7003,16 @@
       <c r="I23" s="67"/>
       <c r="J23" s="68"/>
       <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1">
       <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="65"/>
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
@@ -6905,7 +7021,7 @@
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1">
       <c r="A25" s="64"/>
-      <c r="B25" s="73"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
       <c r="E25" s="66"/>
@@ -6915,35 +7031,35 @@
       <c r="I25" s="67"/>
       <c r="J25" s="68"/>
       <c r="K25" s="66"/>
-      <c r="L25" s="72"/>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="L25" s="66"/>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1">
       <c r="A26" s="64"/>
-      <c r="B26" s="73"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="65"/>
       <c r="I26" s="67"/>
       <c r="J26" s="68"/>
       <c r="K26" s="66"/>
-      <c r="L26" s="72"/>
-    </row>
-    <row r="27" spans="1:12" s="44" customFormat="1">
+      <c r="L26" s="74"/>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="64"/>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
-      <c r="G27" s="71"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="65"/>
       <c r="I27" s="67"/>
       <c r="J27" s="68"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1">
       <c r="A28" s="64"/>
@@ -6956,8 +7072,8 @@
       <c r="H28" s="65"/>
       <c r="I28" s="67"/>
       <c r="J28" s="68"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="74"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1">
       <c r="A29" s="64"/>
@@ -6966,7 +7082,7 @@
       <c r="D29" s="65"/>
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
-      <c r="G29" s="75"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="65"/>
       <c r="I29" s="67"/>
       <c r="J29" s="68"/>
@@ -7015,7 +7131,7 @@
       <c r="K32" s="72"/>
       <c r="L32" s="72"/>
     </row>
-    <row r="33" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="33" spans="1:12" s="44" customFormat="1">
       <c r="A33" s="64"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -7029,7 +7145,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="72"/>
     </row>
-    <row r="34" spans="1:12" s="44" customFormat="1">
+    <row r="34" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="64"/>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
@@ -7128,18 +7244,18 @@
       <c r="L40" s="72"/>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
     </row>
     <row r="42" spans="1:12" s="44" customFormat="1">
       <c r="A42" s="64"/>
@@ -7152,26 +7268,26 @@
       <c r="H42" s="65"/>
       <c r="I42" s="67"/>
       <c r="J42" s="68"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
     </row>
     <row r="43" spans="1:12" s="44" customFormat="1">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="72"/>
     </row>
     <row r="44" spans="1:12" s="44" customFormat="1">
       <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="65"/>
       <c r="D44" s="65"/>
       <c r="E44" s="66"/>
@@ -7181,16 +7297,16 @@
       <c r="I44" s="67"/>
       <c r="J44" s="68"/>
       <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
+      <c r="L44" s="72"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1">
       <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="65"/>
       <c r="D45" s="65"/>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
-      <c r="G45" s="71"/>
+      <c r="G45" s="66"/>
       <c r="H45" s="65"/>
       <c r="I45" s="67"/>
       <c r="J45" s="68"/>
@@ -7204,7 +7320,7 @@
       <c r="D46" s="65"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
-      <c r="G46" s="71"/>
+      <c r="G46" s="66"/>
       <c r="H46" s="65"/>
       <c r="I46" s="67"/>
       <c r="J46" s="68"/>
@@ -7297,8 +7413,8 @@
     </row>
     <row r="53" spans="1:12" s="44" customFormat="1">
       <c r="A53" s="64"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="65"/>
       <c r="E53" s="66"/>
       <c r="F53" s="66"/>
@@ -7307,28 +7423,28 @@
       <c r="I53" s="67"/>
       <c r="J53" s="68"/>
       <c r="K53" s="66"/>
-      <c r="L53" s="72"/>
+      <c r="L53" s="66"/>
     </row>
     <row r="54" spans="1:12" s="44" customFormat="1">
       <c r="A54" s="64"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="65"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
+      <c r="E54" s="71"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
       <c r="H54" s="65"/>
       <c r="I54" s="67"/>
       <c r="J54" s="68"/>
       <c r="K54" s="66"/>
-      <c r="L54" s="72"/>
+      <c r="L54" s="66"/>
     </row>
     <row r="55" spans="1:12" s="44" customFormat="1">
       <c r="A55" s="64"/>
-      <c r="B55" s="65"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="73"/>
       <c r="D55" s="65"/>
-      <c r="E55" s="66"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
       <c r="H55" s="65"/>
@@ -7340,25 +7456,25 @@
     <row r="56" spans="1:12" s="44" customFormat="1">
       <c r="A56" s="64"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="71"/>
       <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
+      <c r="G56" s="71"/>
       <c r="H56" s="65"/>
       <c r="I56" s="67"/>
       <c r="J56" s="68"/>
-      <c r="K56" s="66"/>
+      <c r="K56" s="72"/>
       <c r="L56" s="66"/>
     </row>
     <row r="57" spans="1:12" s="44" customFormat="1">
       <c r="A57" s="64"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="65"/>
       <c r="E57" s="71"/>
       <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="65"/>
       <c r="I57" s="67"/>
       <c r="J57" s="68"/>
@@ -7367,25 +7483,25 @@
     </row>
     <row r="58" spans="1:12" s="44" customFormat="1">
       <c r="A58" s="64"/>
-      <c r="B58" s="73"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
       <c r="E58" s="71"/>
-      <c r="F58" s="66"/>
+      <c r="F58" s="71"/>
       <c r="G58" s="71"/>
       <c r="H58" s="65"/>
       <c r="I58" s="67"/>
       <c r="J58" s="68"/>
-      <c r="K58" s="72"/>
+      <c r="K58" s="66"/>
       <c r="L58" s="66"/>
     </row>
     <row r="59" spans="1:12" s="44" customFormat="1">
       <c r="A59" s="64"/>
-      <c r="B59" s="73"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="65"/>
       <c r="D59" s="65"/>
       <c r="E59" s="71"/>
-      <c r="F59" s="66"/>
+      <c r="F59" s="71"/>
       <c r="G59" s="71"/>
       <c r="H59" s="65"/>
       <c r="I59" s="67"/>
@@ -7394,46 +7510,46 @@
       <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" s="44" customFormat="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="69"/>
     </row>
     <row r="61" spans="1:12" s="44" customFormat="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="65"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="76"/>
       <c r="H61" s="65"/>
       <c r="I61" s="67"/>
       <c r="J61" s="68"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
     </row>
     <row r="62" spans="1:12" s="44" customFormat="1">
-      <c r="A62" s="69"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="69"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="76"/>
     </row>
     <row r="63" spans="1:12" s="44" customFormat="1">
       <c r="A63" s="38"/>
@@ -7441,12 +7557,12 @@
       <c r="C63" s="68"/>
       <c r="D63" s="65"/>
       <c r="E63" s="76"/>
-      <c r="F63" s="66"/>
+      <c r="F63" s="76"/>
       <c r="G63" s="76"/>
       <c r="H63" s="65"/>
       <c r="I63" s="67"/>
       <c r="J63" s="68"/>
-      <c r="K63" s="76"/>
+      <c r="K63" s="77"/>
       <c r="L63" s="76"/>
     </row>
     <row r="64" spans="1:12" s="44" customFormat="1">
@@ -7455,7 +7571,7 @@
       <c r="C64" s="68"/>
       <c r="D64" s="65"/>
       <c r="E64" s="76"/>
-      <c r="F64" s="66"/>
+      <c r="F64" s="76"/>
       <c r="G64" s="76"/>
       <c r="H64" s="65"/>
       <c r="I64" s="67"/>
@@ -7478,18 +7594,18 @@
       <c r="L65" s="76"/>
     </row>
     <row r="66" spans="1:13" s="44" customFormat="1">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="76"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="69"/>
     </row>
     <row r="67" spans="1:13" s="44" customFormat="1">
       <c r="A67" s="38"/>
@@ -7497,7 +7613,7 @@
       <c r="C67" s="68"/>
       <c r="D67" s="65"/>
       <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="76"/>
       <c r="H67" s="65"/>
       <c r="I67" s="67"/>
@@ -7506,33 +7622,32 @@
       <c r="L67" s="76"/>
     </row>
     <row r="68" spans="1:13" s="44" customFormat="1">
-      <c r="A68" s="69"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="69"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="76"/>
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="37"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="69"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
       <c r="A70" s="38"/>
@@ -7549,106 +7664,106 @@
       <c r="L70" s="76"/>
       <c r="M70" s="37"/>
     </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="69"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="70"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="44"/>
+    <row r="71" spans="1:13" s="44" customFormat="1">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="76"/>
+      <c r="M71" s="37"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="76"/>
-    </row>
-    <row r="73" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="68"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="44"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="64"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="65"/>
-      <c r="E73" s="76"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="66"/>
-      <c r="G73" s="76"/>
+      <c r="G73" s="66"/>
       <c r="H73" s="65"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="76"/>
-      <c r="M73" s="37"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="69"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="69"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+    </row>
+    <row r="74" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A74" s="64"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="37"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="64"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="78"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="66"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="69"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="64"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="69"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="44"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="38"/>
@@ -7663,8 +7778,9 @@
       <c r="J78" s="38"/>
       <c r="K78" s="38"/>
       <c r="L78" s="38"/>
-    </row>
-    <row r="79" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M78" s="44"/>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -7677,9 +7793,8 @@
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
       <c r="L79" s="38"/>
-      <c r="M79" s="37"/>
-    </row>
-    <row r="80" spans="1:13">
+    </row>
+    <row r="80" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -7692,7 +7807,7 @@
       <c r="J80" s="38"/>
       <c r="K80" s="38"/>
       <c r="L80" s="38"/>
-      <c r="M80" s="44"/>
+      <c r="M80" s="37"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="38"/>
@@ -7707,8 +7822,9 @@
       <c r="J81" s="38"/>
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
-    </row>
-    <row r="82" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M81" s="44"/>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -7721,9 +7837,8 @@
       <c r="J82" s="38"/>
       <c r="K82" s="38"/>
       <c r="L82" s="38"/>
-      <c r="M82" s="37"/>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -7736,7 +7851,7 @@
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" s="38"/>
-      <c r="M83" s="44"/>
+      <c r="M83" s="37"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="38"/>
@@ -7753,7 +7868,7 @@
       <c r="L84" s="38"/>
       <c r="M84" s="44"/>
     </row>
-    <row r="85" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="85" spans="1:13">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -7766,74 +7881,47 @@
       <c r="J85" s="38"/>
       <c r="K85" s="38"/>
       <c r="L85" s="38"/>
-      <c r="M85" s="37"/>
+      <c r="M85" s="44"/>
     </row>
     <row r="86" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
       <c r="M86" s="37"/>
     </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="64"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="66"/>
-      <c r="L88" s="66"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="64"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="68"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="66"/>
-    </row>
-    <row r="94" spans="1:13" ht="37.5" customHeight="1"/>
+    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A87" s="64"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="37"/>
+    </row>
     <row r="95" spans="1:13" ht="37.5" customHeight="1"/>
     <row r="96" spans="1:13" ht="37.5" customHeight="1"/>
     <row r="97" ht="37.5" customHeight="1"/>
-    <row r="99" ht="18" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="104" ht="30" customHeight="1"/>
-    <row r="108" ht="44.25" customHeight="1"/>
-    <row r="109" ht="45" customHeight="1"/>
+    <row r="98" ht="37.5" customHeight="1"/>
+    <row r="100" ht="18" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="105" ht="30" customHeight="1"/>
+    <row r="109" ht="44.25" customHeight="1"/>
+    <row r="110" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -7851,19 +7939,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I74 I43 I71 I68 I62 I77">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I72 I41 I69 I66 I60 I75">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J74 J43 J71 J68 J62 J77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J72 J41 J69 J66 J60 J75">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H88:H89 H23:H74 H76:H77 H8:H10 H13:H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H86:H87 H21:H72 H74:H75 H8:H11 H14:H19">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I88:I89 I23:I42 I44:I61 I72:I73 I69:I70 I63:I67 I76 I8:I10 I13:I21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I86:I87 I21:I40 I42:I59 I70:I71 I67:I68 I61:I65 I74 I8:I11 I14:I19">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J63:J67 J69:J70 J76 J72:J73 J44:J61 J23:J42 J88:J89 J8:J10 J13:J21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J61:J65 J67:J68 J74 J70:J71 J42:J59 J21:J40 J86:J87 J8:J11 J14:J19">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7878,7 +7966,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Screen" sheetId="3" r:id="rId3"/>
     <sheet name="Characteristics" sheetId="4" r:id="rId4"/>
     <sheet name="Define" sheetId="5" r:id="rId5"/>
+    <sheet name="Viewpoint_Function (2)" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -26,273 +26,534 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_1._はじめに" localSheetId="5">#REF!</definedName>
     <definedName name="_1._はじめに">#REF!</definedName>
+    <definedName name="_1.1._本書の位置付け" localSheetId="5">#REF!</definedName>
     <definedName name="_1.1._本書の位置付け">#REF!</definedName>
+    <definedName name="_1.2._適用範囲" localSheetId="5">#REF!</definedName>
     <definedName name="_1.2._適用範囲">#REF!</definedName>
+    <definedName name="_1.3._製品の位置付け" localSheetId="5">#REF!</definedName>
     <definedName name="_1.3._製品の位置付け">#REF!</definedName>
+    <definedName name="_1.4._DR_Console_V1.0_V2.0開発内容の記載についての注意" localSheetId="5">#REF!</definedName>
     <definedName name="_1.4._DR_Console_V1.0_V2.0開発内容の記載についての注意">#REF!</definedName>
+    <definedName name="_1.gfjsahfk" localSheetId="5">#REF!</definedName>
     <definedName name="_1.gfjsahfk">#REF!</definedName>
+    <definedName name="_10._ヒューマンファクター" localSheetId="5">#REF!</definedName>
     <definedName name="_10._ヒューマンファクター">#REF!</definedName>
+    <definedName name="_10.1._アプリケーションの起動と終了" localSheetId="5">#REF!</definedName>
     <definedName name="_10.1._アプリケーションの起動と終了">#REF!</definedName>
+    <definedName name="_10.2._周辺機器" localSheetId="5">#REF!</definedName>
     <definedName name="_10.2._周辺機器">#REF!</definedName>
+    <definedName name="_10.3._画面表示" localSheetId="5">#REF!</definedName>
     <definedName name="_10.3._画面表示">#REF!</definedName>
+    <definedName name="_10.3.1._アイコン" localSheetId="5">#REF!</definedName>
     <definedName name="_10.3.1._アイコン">#REF!</definedName>
+    <definedName name="_10.3.2._画面の配色" localSheetId="5">#REF!</definedName>
     <definedName name="_10.3.2._画面の配色">#REF!</definedName>
+    <definedName name="_10.3.3._画面のレイアウト" localSheetId="5">#REF!</definedName>
     <definedName name="_10.3.3._画面のレイアウト">#REF!</definedName>
+    <definedName name="_10.3.4._文字表示" localSheetId="5">#REF!</definedName>
     <definedName name="_10.3.4._文字表示">#REF!</definedName>
+    <definedName name="_10.4._表示言語" localSheetId="5">#REF!</definedName>
     <definedName name="_10.4._表示言語">#REF!</definedName>
+    <definedName name="_10.5._ユーザへの通知" localSheetId="5">#REF!</definedName>
     <definedName name="_10.5._ユーザへの通知">#REF!</definedName>
+    <definedName name="_10.5.1._ステータス_エラーメッセージ表示" localSheetId="5">#REF!</definedName>
     <definedName name="_10.5.1._ステータス_エラーメッセージ表示">#REF!</definedName>
+    <definedName name="_10.5.2._サウンド通知" localSheetId="5">#REF!</definedName>
     <definedName name="_10.5.2._サウンド通知">#REF!</definedName>
+    <definedName name="_10.6._送り先装置異常" localSheetId="5">#REF!</definedName>
     <definedName name="_10.6._送り先装置異常">#REF!</definedName>
+    <definedName name="_10.7._日本語環境における文字の扱い" localSheetId="5">#REF!</definedName>
     <definedName name="_10.7._日本語環境における文字の扱い">#REF!</definedName>
+    <definedName name="_11._セキュリティ上の要求事項" localSheetId="5">#REF!</definedName>
     <definedName name="_11._セキュリティ上の要求事項">#REF!</definedName>
+    <definedName name="_12._ユーザドキュメント" localSheetId="5">#REF!</definedName>
     <definedName name="_12._ユーザドキュメント">#REF!</definedName>
+    <definedName name="_13._適用法規" localSheetId="5">#REF!</definedName>
     <definedName name="_13._適用法規">#REF!</definedName>
+    <definedName name="_14._修理_メンテナンス関連" localSheetId="5">#REF!</definedName>
     <definedName name="_14._修理_メンテナンス関連">#REF!</definedName>
+    <definedName name="_14.1._定期点検" localSheetId="5">#REF!</definedName>
     <definedName name="_14.1._定期点検">#REF!</definedName>
+    <definedName name="_14.2._障害発生時のデータ保管" localSheetId="5">#REF!</definedName>
     <definedName name="_14.2._障害発生時のデータ保管">#REF!</definedName>
+    <definedName name="_14.3._ソフトウェアのメンテナンス" localSheetId="5">#REF!</definedName>
     <definedName name="_14.3._ソフトウェアのメンテナンス">#REF!</definedName>
+    <definedName name="_14.4._リモートメンテナンス_DRCSL_V1V2Add" localSheetId="5">#REF!</definedName>
     <definedName name="_14.4._リモートメンテナンス_DRCSL_V1V2Add">#REF!</definedName>
+    <definedName name="_15._OEM供給_DRCSL_V1V2Add" localSheetId="5">#REF!</definedName>
     <definedName name="_15._OEM供給_DRCSL_V1V2Add">#REF!</definedName>
+    <definedName name="_2._ソフトウェアパッケージ" localSheetId="5">#REF!</definedName>
     <definedName name="_2._ソフトウェアパッケージ">#REF!</definedName>
+    <definedName name="_2.1_アプリケーションソフトウェア本体" localSheetId="5">#REF!</definedName>
     <definedName name="_2.1_アプリケーションソフトウェア本体">#REF!</definedName>
+    <definedName name="_2.2_アプリケーションソフトウェア有効化キー" localSheetId="5">#REF!</definedName>
     <definedName name="_2.2_アプリケーションソフトウェア有効化キー">#REF!</definedName>
+    <definedName name="_2.3._オプションソフトウェア" localSheetId="5">#REF!</definedName>
     <definedName name="_2.3._オプションソフトウェア">#REF!</definedName>
+    <definedName name="_2.3.1._外部接続機器関連のオプション機能" localSheetId="5">#REF!</definedName>
     <definedName name="_2.3.1._外部接続機器関連のオプション機能">#REF!</definedName>
+    <definedName name="_2.3.2._画像処理関連のオプション機能" localSheetId="5">#REF!</definedName>
     <definedName name="_2.3.2._画像処理関連のオプション機能">#REF!</definedName>
+    <definedName name="_2.3.3._画像処理パラメータのインタラクティブな調整に関するオプション機能" localSheetId="5">#REF!</definedName>
     <definedName name="_2.3.3._画像処理パラメータのインタラクティブな調整に関するオプション機能">#REF!</definedName>
+    <definedName name="_2.3.4._その他のオプション機能" localSheetId="5">#REF!</definedName>
     <definedName name="_2.3.4._その他のオプション機能">#REF!</definedName>
+    <definedName name="_2.3.5._オプションパッケージ" localSheetId="5">#REF!</definedName>
     <definedName name="_2.3.5._オプションパッケージ">#REF!</definedName>
+    <definedName name="_3._ハードウェア環境" localSheetId="5">#REF!</definedName>
     <definedName name="_3._ハードウェア環境">#REF!</definedName>
+    <definedName name="_3.1._PC" localSheetId="5">#REF!</definedName>
     <definedName name="_3.1._PC">#REF!</definedName>
+    <definedName name="_3.2._モニタ" localSheetId="5">#REF!</definedName>
     <definedName name="_3.2._モニタ">#REF!</definedName>
+    <definedName name="_3.3._その他ハードウェア" localSheetId="5">#REF!</definedName>
     <definedName name="_3.3._その他ハードウェア">#REF!</definedName>
+    <definedName name="_4._ソフトウェア環境" localSheetId="5">#REF!</definedName>
     <definedName name="_4._ソフトウェア環境">#REF!</definedName>
+    <definedName name="_4.1._OS" localSheetId="5">#REF!</definedName>
     <definedName name="_4.1._OS">#REF!</definedName>
+    <definedName name="_4.2._連携ソフトウェア" localSheetId="5">#REF!</definedName>
     <definedName name="_4.2._連携ソフトウェア">#REF!</definedName>
+    <definedName name="_4.3._その他OTSソフトウェア" localSheetId="5">#REF!</definedName>
     <definedName name="_4.3._その他OTSソフトウェア">#REF!</definedName>
+    <definedName name="_5._インターフェースする機器" localSheetId="5">#REF!</definedName>
     <definedName name="_5._インターフェースする機器">#REF!</definedName>
+    <definedName name="_5.1._FCR画像読取装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.1._FCR画像読取装置">#REF!</definedName>
+    <definedName name="_5.1.1._接続する装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.1.1._接続する装置">#REF!</definedName>
+    <definedName name="_5.1.2._機器の接続台数" localSheetId="5">#REF!</definedName>
     <definedName name="_5.1.2._機器の接続台数">#REF!</definedName>
+    <definedName name="_5.2._ハードコピー装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.2._ハードコピー装置">#REF!</definedName>
+    <definedName name="_5.2.1._接続する装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.2.1._接続する装置">#REF!</definedName>
+    <definedName name="_5.2.2._機器の接続台数" localSheetId="5">#REF!</definedName>
     <definedName name="_5.2.2._機器の接続台数">#REF!</definedName>
+    <definedName name="_5.3._ワークステーション" localSheetId="5">#REF!</definedName>
     <definedName name="_5.3._ワークステーション">#REF!</definedName>
+    <definedName name="_5.3.1._接続する装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.3.1._接続する装置">#REF!</definedName>
+    <definedName name="_5.3.2._機器の接続台数" localSheetId="5">#REF!</definedName>
     <definedName name="_5.3.2._機器の接続台数">#REF!</definedName>
+    <definedName name="_5.4._ストレージ装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.4._ストレージ装置">#REF!</definedName>
+    <definedName name="_5.4.1._接続する装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.4.1._接続する装置">#REF!</definedName>
+    <definedName name="_5.4.2._機器の接続台数" localSheetId="5">#REF!</definedName>
     <definedName name="_5.4.2._機器の接続台数">#REF!</definedName>
+    <definedName name="_5.5._ID_Terminal_DRCSL_V1V2制限_ID_Tとの接続はサポートしない。" localSheetId="5">#REF!</definedName>
     <definedName name="_5.5._ID_Terminal_DRCSL_V1V2制限_ID_Tとの接続はサポートしない。">#REF!</definedName>
+    <definedName name="_5.5.1._接続する装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.5.1._接続する装置">#REF!</definedName>
+    <definedName name="_5.5.2._機器の接続台数" localSheetId="5">#REF!</definedName>
     <definedName name="_5.5.2._機器の接続台数">#REF!</definedName>
+    <definedName name="_5.6._RIS" localSheetId="5">#REF!</definedName>
     <definedName name="_5.6._RIS">#REF!</definedName>
+    <definedName name="_5.6.1._DICOM_MWM___PPSで接続する装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.6.1._DICOM_MWM___PPSで接続する装置">#REF!</definedName>
+    <definedName name="_5.6.2._DICOM_MWM___PPSで機器の接続台数" localSheetId="5">#REF!</definedName>
     <definedName name="_5.6.2._DICOM_MWM___PPSで機器の接続台数">#REF!</definedName>
+    <definedName name="_5.7._レセコン_DRCSL_V1V2制限_各社レセコン_FCR簡易オーダリングへの接続を禁止" localSheetId="5">#REF!</definedName>
     <definedName name="_5.7._レセコン_DRCSL_V1V2制限_各社レセコン_FCR簡易オーダリングへの接続を禁止">#REF!</definedName>
+    <definedName name="_5.7.1._接続する装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.7.1._接続する装置">#REF!</definedName>
+    <definedName name="_5.7.2._機器の接続台数" localSheetId="5">#REF!</definedName>
     <definedName name="_5.7.2._機器の接続台数">#REF!</definedName>
+    <definedName name="_5.8._X_CON装置_DRCSL_V1V2制限_島津製DR撮影装置用以外のX線コントローラ_X_CON_の接続を禁止" localSheetId="5">#REF!</definedName>
     <definedName name="_5.8._X_CON装置_DRCSL_V1V2制限_島津製DR撮影装置用以外のX線コントローラ_X_CON_の接続を禁止">#REF!</definedName>
+    <definedName name="_5.8.1._接続する装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.8.1._接続する装置">#REF!</definedName>
+    <definedName name="_5.8.2._機器の接続台数" localSheetId="5">#REF!</definedName>
     <definedName name="_5.8.2._機器の接続台数">#REF!</definedName>
+    <definedName name="_5.9._マンモグラフィーX_CON装置_DRCSL_V1V2制限_マンモには対応しない" localSheetId="5">#REF!</definedName>
     <definedName name="_5.9._マンモグラフィーX_CON装置_DRCSL_V1V2制限_マンモには対応しない">#REF!</definedName>
+    <definedName name="_5.9.1._接続する装置" localSheetId="5">#REF!</definedName>
     <definedName name="_5.9.1._接続する装置">#REF!</definedName>
+    <definedName name="_5.9.2._機器の接続台数" localSheetId="5">#REF!</definedName>
     <definedName name="_5.9.2._機器の接続台数">#REF!</definedName>
+    <definedName name="_6.__機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.__機能">#REF!</definedName>
+    <definedName name="_6.1.__単純Ｘ線撮影の作業ワークフローの提供" localSheetId="5">#REF!</definedName>
     <definedName name="_6.1.__単純Ｘ線撮影の作業ワークフローの提供">#REF!</definedName>
+    <definedName name="_6.1.1.__１検査の登録から出力まで" localSheetId="5">#REF!</definedName>
     <definedName name="_6.1.1.__１検査の登録から出力まで">#REF!</definedName>
+    <definedName name="_6.1.2.__複数検査の実施から出力まで" localSheetId="5">#REF!</definedName>
     <definedName name="_6.1.2.__複数検査の実施から出力まで">#REF!</definedName>
+    <definedName name="_6.1.3.__出力済み検査の画像確認から再出力まで" localSheetId="5">#REF!</definedName>
     <definedName name="_6.1.3.__出力済み検査の画像確認から再出力まで">#REF!</definedName>
+    <definedName name="_6.1.4.__未出力検査の削除" localSheetId="5">#REF!</definedName>
     <definedName name="_6.1.4.__未出力検査の削除">#REF!</definedName>
+    <definedName name="_6.1.5.__検査の自動削除" localSheetId="5">#REF!</definedName>
     <definedName name="_6.1.5.__検査の自動削除">#REF!</definedName>
+    <definedName name="_6.1.6.__検査の共有" localSheetId="5">#REF!</definedName>
     <definedName name="_6.1.6.__検査の共有">#REF!</definedName>
+    <definedName name="_6.1.7.__バーコード読み取りによる検査選択と作業開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.1.7.__バーコード読み取りによる検査選択と作業開始">#REF!</definedName>
+    <definedName name="_6.10.1._接続装置と接続装置ごとの処理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.10.1._接続装置と接続装置ごとの処理">#REF!</definedName>
+    <definedName name="_6.10.2.__画像処理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.10.2.__画像処理">#REF!</definedName>
+    <definedName name="_6.10.3.__出力時の制御" localSheetId="5">#REF!</definedName>
     <definedName name="_6.10.3.__出力時の制御">#REF!</definedName>
+    <definedName name="_6.10.ソフトコピー出力__「ストレージ装置」への出力への出力" localSheetId="5">#REF!</definedName>
     <definedName name="_6.10.ソフトコピー出力__「ストレージ装置」への出力への出力">#REF!</definedName>
+    <definedName name="_6.11._画像処理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.11._画像処理">#REF!</definedName>
+    <definedName name="_6.12._フィルム再出力のための画像受信" localSheetId="5">#REF!</definedName>
     <definedName name="_6.12._フィルム再出力のための画像受信">#REF!</definedName>
+    <definedName name="_6.12.1._使用するプロトコル" localSheetId="5">#REF!</definedName>
     <definedName name="_6.12.1._使用するプロトコル">#REF!</definedName>
+    <definedName name="_6.12.2._画像の受け取り" localSheetId="5">#REF!</definedName>
     <definedName name="_6.12.2._画像の受け取り">#REF!</definedName>
+    <definedName name="_6.12.3._フィルム出力" localSheetId="5">#REF!</definedName>
     <definedName name="_6.12.3._フィルム出力">#REF!</definedName>
+    <definedName name="_6.13._フィルム再出力のための画像検索と受信_DRCSL_V1V2制限" localSheetId="5">#REF!</definedName>
     <definedName name="_6.13._フィルム再出力のための画像検索と受信_DRCSL_V1V2制限">#REF!</definedName>
+    <definedName name="_6.13.1._ストレージ装置への問い合わせ" localSheetId="5">#REF!</definedName>
     <definedName name="_6.13.1._ストレージ装置への問い合わせ">#REF!</definedName>
+    <definedName name="_6.13.2._ストレージ装置からの画像取得_Retrieve" localSheetId="5">#REF!</definedName>
     <definedName name="_6.13.2._ストレージ装置からの画像取得_Retrieve">#REF!</definedName>
+    <definedName name="_6.13.3._フイルム出力" localSheetId="5">#REF!</definedName>
     <definedName name="_6.13.3._フイルム出力">#REF!</definedName>
+    <definedName name="_6.14._ユーザユーティリティ" localSheetId="5">#REF!</definedName>
     <definedName name="_6.14._ユーザユーティリティ">#REF!</definedName>
+    <definedName name="_6.14.1._マスター情報のシステム登録" localSheetId="5">#REF!</definedName>
     <definedName name="_6.14.1._マスター情報のシステム登録">#REF!</definedName>
+    <definedName name="_6.14.2._マスター情報の表示および変更" localSheetId="5">#REF!</definedName>
     <definedName name="_6.14.2._マスター情報の表示および変更">#REF!</definedName>
+    <definedName name="_6.14.3._マスター情報の保存および復元" localSheetId="5">#REF!</definedName>
     <definedName name="_6.14.3._マスター情報の保存および復元">#REF!</definedName>
+    <definedName name="_6.14.4._環境設定" localSheetId="5">#REF!</definedName>
     <definedName name="_6.14.4._環境設定">#REF!</definedName>
+    <definedName name="_6.14.5._撮影結果ログ保存" localSheetId="5">#REF!</definedName>
     <definedName name="_6.14.5._撮影結果ログ保存">#REF!</definedName>
+    <definedName name="_6.14.6._IP利用回数集計" localSheetId="5">#REF!</definedName>
     <definedName name="_6.14.6._IP利用回数集計">#REF!</definedName>
+    <definedName name="_6.14.7._Retake_Analisys機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.14.7._Retake_Analisys機能">#REF!</definedName>
+    <definedName name="_6.15._メンテナンス機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.15._メンテナンス機能">#REF!</definedName>
+    <definedName name="_6.15.1._起動方法" localSheetId="5">#REF!</definedName>
     <definedName name="_6.15.1._起動方法">#REF!</definedName>
+    <definedName name="_6.15.2._システム設定の表示および変更" localSheetId="5">#REF!</definedName>
     <definedName name="_6.15.2._システム設定の表示および変更">#REF!</definedName>
+    <definedName name="_6.15.3._システム設定の保存と復元" localSheetId="5">#REF!</definedName>
     <definedName name="_6.15.3._システム設定の保存と復元">#REF!</definedName>
+    <definedName name="_6.15.4._不具合情報収集" localSheetId="5">#REF!</definedName>
     <definedName name="_6.15.4._不具合情報収集">#REF!</definedName>
+    <definedName name="_6.15.5._他装置との接続確認" localSheetId="5">#REF!</definedName>
     <definedName name="_6.15.5._他装置との接続確認">#REF!</definedName>
+    <definedName name="_6.15.6._Pocket__id__Consoleへのシステム設定情報の転送" localSheetId="5">#REF!</definedName>
     <definedName name="_6.15.6._Pocket__id__Consoleへのシステム設定情報の転送">#REF!</definedName>
+    <definedName name="_6.15.7._マンモグラフィーへの対応" localSheetId="5">#REF!</definedName>
     <definedName name="_6.15.7._マンモグラフィーへの対応">#REF!</definedName>
+    <definedName name="_6.16._PDA端末での画像収録の実施_Pocket_id_Console" localSheetId="5">#REF!</definedName>
     <definedName name="_6.16._PDA端末での画像収録の実施_Pocket_id_Console">#REF!</definedName>
+    <definedName name="_6.16.1._PDA端末の起動_終了" localSheetId="5">#REF!</definedName>
     <definedName name="_6.16.1._PDA端末の起動_終了">#REF!</definedName>
+    <definedName name="_6.16.2._PDA端末への検査の転送" localSheetId="5">#REF!</definedName>
     <definedName name="_6.16.2._PDA端末への検査の転送">#REF!</definedName>
+    <definedName name="_6.16.3._PDAでのバーコード読取" localSheetId="5">#REF!</definedName>
     <definedName name="_6.16.3._PDAでのバーコード読取">#REF!</definedName>
+    <definedName name="_6.16.4._PDAでの患者氏名の表示" localSheetId="5">#REF!</definedName>
     <definedName name="_6.16.4._PDAでの患者氏名の表示">#REF!</definedName>
+    <definedName name="_6.17._使用者認証対応" localSheetId="5">#REF!</definedName>
     <definedName name="_6.17._使用者認証対応">#REF!</definedName>
+    <definedName name="_6.18.1.1_キャリブモードでの機能制限" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.1.1_キャリブモードでの機能制限">#REF!</definedName>
+    <definedName name="_6.18.1_キャリブモードへの遷移" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.1_キャリブモードへの遷移">#REF!</definedName>
+    <definedName name="_6.18.2.1_キャリブ準備状態通知" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.2.1_キャリブ準備状態通知">#REF!</definedName>
+    <definedName name="_6.18.2.2_キャリブの開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.2.2_キャリブの開始">#REF!</definedName>
+    <definedName name="_6.18.2.3_キャリブ処理状態での進捗状況通知" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.2.3_キャリブ処理状態での進捗状況通知">#REF!</definedName>
+    <definedName name="_6.18.2.4_キャリブの停止" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.2.4_キャリブの停止">#REF!</definedName>
+    <definedName name="_6.18.2.5_キャリブの完了と結果表示" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.2.5_キャリブの完了と結果表示">#REF!</definedName>
+    <definedName name="_6.18.2.6_エラーのユーザ通知" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.2.6_エラーのユーザ通知">#REF!</definedName>
+    <definedName name="_6.18.2_キャリブ機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.2_キャリブ機能">#REF!</definedName>
+    <definedName name="_6.18.3_ルーチンモードへの遷移" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.3_ルーチンモードへの遷移">#REF!</definedName>
+    <definedName name="_6.18.4_キャリブ実施履歴のファイル保存" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.4_キャリブ実施履歴のファイル保存">#REF!</definedName>
+    <definedName name="_6.18.6_システム構成に従っての操作フロー変更" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18.6_システム構成に従っての操作フロー変更">#REF!</definedName>
+    <definedName name="_6.18_DR撮影装置の較正_キャリブレーション" localSheetId="5">#REF!</definedName>
     <definedName name="_6.18_DR撮影装置の較正_キャリブレーション">#REF!</definedName>
+    <definedName name="_6.2.__検査の登録" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.__検査の登録">#REF!</definedName>
+    <definedName name="_6.2.1.__患者情報の設定" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.1.__患者情報の設定">#REF!</definedName>
+    <definedName name="_6.2.10.__検査のリスト管理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.10.__検査のリスト管理">#REF!</definedName>
+    <definedName name="_6.2.2.__オーダ情報の設定" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.2.__オーダ情報の設定">#REF!</definedName>
+    <definedName name="_6.2.3.__患者情報のRISへの検索と取得" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.3.__患者情報のRISへの検索と取得">#REF!</definedName>
+    <definedName name="_6.2.4._三洋レセコン接続I_Fでのレセコンへの患者情報の検索と取得" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.4._三洋レセコン接続I_Fでのレセコンへの患者情報の検索と取得">#REF!</definedName>
+    <definedName name="_6.2.5._東芝レセコンI_F接続でのレセコンからの患者情報の取得" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.5._東芝レセコンI_F接続でのレセコンからの患者情報の取得">#REF!</definedName>
+    <definedName name="_6.2.6._富士通レセコンからのオーダ情報の取得と検査の登録" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.6._富士通レセコンからのオーダ情報の取得と検査の登録">#REF!</definedName>
+    <definedName name="_6.2.7.__撮影メニュー" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.7.__撮影メニュー">#REF!</definedName>
+    <definedName name="_6.2.8.__検査の予約" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.8.__検査の予約">#REF!</definedName>
+    <definedName name="_6.2.9._システムのモダリティ" localSheetId="5">#REF!</definedName>
     <definedName name="_6.2.9._システムのモダリティ">#REF!</definedName>
+    <definedName name="_6.3.__画像収録の開始_検査の開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.__画像収録の開始_検査の開始">#REF!</definedName>
+    <definedName name="_6.3.1.__患者情報_オーダ情報_撮影メニュー設定後の画像収録開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.1.__患者情報_オーダ情報_撮影メニュー設定後の画像収録開始">#REF!</definedName>
+    <definedName name="_6.3.10._FCR_簡易オーダリングI_F接続レセコンからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.10._FCR_簡易オーダリングI_F接続レセコンからの検査情報の取得と画像収録開始">#REF!</definedName>
+    <definedName name="_6.3.2.__登録済み検査選択による画像収録開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.2.__登録済み検査選択による画像収録開始">#REF!</definedName>
+    <definedName name="_6.3.3.__一時保留した検査の選択による画像収録開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.3.__一時保留した検査の選択による画像収録開始">#REF!</definedName>
+    <definedName name="_6.3.4.__RISからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.4.__RISからの検査情報の取得と画像収録開始">#REF!</definedName>
+    <definedName name="_6.3.5.__自動モードによる画像収録の開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.5.__自動モードによる画像収録の開始">#REF!</definedName>
+    <definedName name="_6.3.6.__画像収録開始時の情報設定" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.6.__画像収録開始時の情報設定">#REF!</definedName>
+    <definedName name="_6.3.7._F_RISからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.7._F_RISからの検査情報の取得と画像収録開始">#REF!</definedName>
+    <definedName name="_6.3.8._シリアル接続RISからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.8._シリアル接続RISからの検査情報の取得と画像収録開始">#REF!</definedName>
+    <definedName name="_6.3.9._東芝RISからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.3.9._東芝RISからの検査情報の取得と画像収録開始">#REF!</definedName>
+    <definedName name="_6.4.__画像収録の実施_検査の実施" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.__画像収録の実施_検査の実施">#REF!</definedName>
+    <definedName name="_6.4.1.__実施する検査情報の表示" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.1.__実施する検査情報の表示">#REF!</definedName>
+    <definedName name="_6.4.10.__救急モード" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.10.__救急モード">#REF!</definedName>
+    <definedName name="_6.4.10.1_救急モードのユーザ通知" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.10.1_救急モードのユーザ通知">#REF!</definedName>
+    <definedName name="_6.4.10.2_救急モードでの操作制御" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.10.2_救急モードでの操作制御">#REF!</definedName>
+    <definedName name="_6.4.10.3_曝射制御" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.10.3_曝射制御">#REF!</definedName>
+    <definedName name="_6.4.10.4_キャリブ制御" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.10.4_キャリブ制御">#REF!</definedName>
+    <definedName name="_6.4.11.__断層撮影【TBD】" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.11.__断層撮影【TBD】">#REF!</definedName>
+    <definedName name="_6.4.2.__撮影メニューの編集" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.2.__撮影メニューの編集">#REF!</definedName>
+    <definedName name="_6.4.3.__撮影台の制御" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.3.__撮影台の制御">#REF!</definedName>
+    <definedName name="_6.4.4.__撮影メニューと画像の関連付け" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.4.__撮影メニューと画像の関連付け">#REF!</definedName>
+    <definedName name="_6.4.5.__画像受信時の処理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.5.__画像受信時の処理">#REF!</definedName>
+    <definedName name="_6.4.6.__画像の表示" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.6.__画像の表示">#REF!</definedName>
+    <definedName name="_6.4.7.__画像の調整" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.7.__画像の調整">#REF!</definedName>
+    <definedName name="_6.4.8.__画像の出力" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.8.__画像の出力">#REF!</definedName>
+    <definedName name="_6.4.9.__画像収録の終了" localSheetId="5">#REF!</definedName>
     <definedName name="_6.4.9.__画像収録の終了">#REF!</definedName>
+    <definedName name="_6.5.__リスト表示" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.__リスト表示">#REF!</definedName>
+    <definedName name="_6.5.1.__リスト表示項目" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.1.__リスト表示項目">#REF!</definedName>
+    <definedName name="_6.5.10._表示件数の表示" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.10._表示件数の表示">#REF!</definedName>
+    <definedName name="_6.5.11._フィルタリング" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.11._フィルタリング">#REF!</definedName>
+    <definedName name="_6.5.12.__リスト表示機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.12.__リスト表示機能">#REF!</definedName>
+    <definedName name="_6.5.13.__画像の検査間移動" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.13.__画像の検査間移動">#REF!</definedName>
+    <definedName name="_6.5.14.__画像確認の開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.14.__画像確認の開始">#REF!</definedName>
+    <definedName name="_6.5.15.__検査の終了" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.15.__検査の終了">#REF!</definedName>
+    <definedName name="_6.5.16.__検査の削除" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.16.__検査の削除">#REF!</definedName>
+    <definedName name="_6.5.17.__ワークリスト" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.17.__ワークリスト">#REF!</definedName>
+    <definedName name="_6.5.18.__検査情報共有_DRCSL_V1V2制限_検査情報共有機能の設定を禁止" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.18.__検査情報共有_DRCSL_V1V2制限_検査情報共有機能の設定を禁止">#REF!</definedName>
+    <definedName name="_6.5.19._画像出力" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.19._画像出力">#REF!</definedName>
+    <definedName name="_6.5.2.__リスト表示のカスタマイズ" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.2.__リスト表示のカスタマイズ">#REF!</definedName>
+    <definedName name="_6.5.3.__表示項目のカスタマイズ" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.3.__表示項目のカスタマイズ">#REF!</definedName>
+    <definedName name="_6.5.4.__検索機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.4.__検索機能">#REF!</definedName>
+    <definedName name="_6.5.5.__ソート機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.5.__ソート機能">#REF!</definedName>
+    <definedName name="_6.5.6.__検査の選択と実行" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.6.__検査の選択と実行">#REF!</definedName>
+    <definedName name="_6.5.7.__検査削除" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.7.__検査削除">#REF!</definedName>
+    <definedName name="_6.5.8.__再表示機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.8.__再表示機能">#REF!</definedName>
+    <definedName name="_6.5.9.__スクロール機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.5.9.__スクロール機能">#REF!</definedName>
+    <definedName name="_6.6._画像の確認_調整" localSheetId="5">#REF!</definedName>
     <definedName name="_6.6._画像の確認_調整">#REF!</definedName>
+    <definedName name="_6.6.1._画像確認の開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.6.1._画像確認の開始">#REF!</definedName>
+    <definedName name="_6.6.2._画像の確認_調整" localSheetId="5">#REF!</definedName>
     <definedName name="_6.6.2._画像の確認_調整">#REF!</definedName>
+    <definedName name="_6.6.3._画像の調整" localSheetId="5">#REF!</definedName>
     <definedName name="_6.6.3._画像の調整">#REF!</definedName>
+    <definedName name="_6.6.4._特殊プリント" localSheetId="5">#REF!</definedName>
     <definedName name="_6.6.4._特殊プリント">#REF!</definedName>
+    <definedName name="_6.7._検査実施中での画像の確認_調整" localSheetId="5">#REF!</definedName>
     <definedName name="_6.7._検査実施中での画像の確認_調整">#REF!</definedName>
+    <definedName name="_6.7.1._画像の確認_調整" localSheetId="5">#REF!</definedName>
     <definedName name="_6.7.1._画像の確認_調整">#REF!</definedName>
+    <definedName name="_6.7.2._手動での照射野外黒化処理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.7.2._手動での照射野外黒化処理">#REF!</definedName>
+    <definedName name="_6.7.3._長尺画像のつなぎ合わせ位置の調整" localSheetId="5">#REF!</definedName>
     <definedName name="_6.7.3._長尺画像のつなぎ合わせ位置の調整">#REF!</definedName>
+    <definedName name="_6.8._一括画像確認" localSheetId="5">#REF!</definedName>
     <definedName name="_6.8._一括画像確認">#REF!</definedName>
+    <definedName name="_6.8.1._一括画像確認の開始" localSheetId="5">#REF!</definedName>
     <definedName name="_6.8.1._一括画像確認の開始">#REF!</definedName>
+    <definedName name="_6.8.2._患者情報_オーダ情報_撮影メニューの表示" localSheetId="5">#REF!</definedName>
     <definedName name="_6.8.2._患者情報_オーダ情報_撮影メニューの表示">#REF!</definedName>
+    <definedName name="_6.8.2_キャリブ機能" localSheetId="5">#REF!</definedName>
     <definedName name="_6.8.2_キャリブ機能">#REF!</definedName>
+    <definedName name="_6.8.3._患者情報_オーダ情報_撮影メニューの修正及び画像の確認と調整" localSheetId="5">#REF!</definedName>
     <definedName name="_6.8.3._患者情報_オーダ情報_撮影メニューの修正及び画像の確認と調整">#REF!</definedName>
+    <definedName name="_6.8.4._画像の出力" localSheetId="5">#REF!</definedName>
     <definedName name="_6.8.4._画像の出力">#REF!</definedName>
+    <definedName name="_6.8.5._“撮影失敗画像_のマーキング" localSheetId="5">#REF!</definedName>
     <definedName name="_6.8.5._“撮影失敗画像_のマーキング">#REF!</definedName>
+    <definedName name="_6.8.6._再画像収録" localSheetId="5">#REF!</definedName>
     <definedName name="_6.8.6._再画像収録">#REF!</definedName>
+    <definedName name="_6.9._ハードコピー装置への出力_イメージャーからのフイルムプリント" localSheetId="5">#REF!</definedName>
     <definedName name="_6.9._ハードコピー装置への出力_イメージャーからのフイルムプリント">#REF!</definedName>
+    <definedName name="_6.9.1._接続装置と接続装置毎の処理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.9.1._接続装置と接続装置毎の処理">#REF!</definedName>
+    <definedName name="_6.9.2._画像処理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.9.2._画像処理">#REF!</definedName>
+    <definedName name="_6.9.3._フォーマット処理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.9.3._フォーマット処理">#REF!</definedName>
+    <definedName name="_6.9.4._出力処理" localSheetId="5">#REF!</definedName>
     <definedName name="_6.9.4._出力処理">#REF!</definedName>
+    <definedName name="_6.9.5._出力フォーマット" localSheetId="5">#REF!</definedName>
     <definedName name="_6.9.5._出力フォーマット">#REF!</definedName>
+    <definedName name="_7._性能_レスポンス" localSheetId="5">#REF!</definedName>
     <definedName name="_7._性能_レスポンス">#REF!</definedName>
+    <definedName name="_7.1._読取機から画像を受け取って自動的に出力" localSheetId="5">#REF!</definedName>
     <definedName name="_7.1._読取機から画像を受け取って自動的に出力">#REF!</definedName>
+    <definedName name="_7.1.1._基本性能" localSheetId="5">#REF!</definedName>
     <definedName name="_7.1.1._基本性能">#REF!</definedName>
+    <definedName name="_7.1.2._CR_IR346RU接続_⇒削除" localSheetId="5">#REF!</definedName>
     <definedName name="_7.1.2._CR_IR346RU接続_⇒削除">#REF!</definedName>
+    <definedName name="_7.1.3._CR_IR341接続⇒削除" localSheetId="5">#REF!</definedName>
     <definedName name="_7.1.3._CR_IR341接続⇒削除">#REF!</definedName>
+    <definedName name="_7.1.4._CR_IR362接続" localSheetId="5">#REF!</definedName>
     <definedName name="_7.1.4._CR_IR362接続">#REF!</definedName>
+    <definedName name="_7.1.5._CR_IR363接続" localSheetId="5">#REF!</definedName>
     <definedName name="_7.1.5._CR_IR363接続">#REF!</definedName>
+    <definedName name="_7.1.6._CR_IR364接続" localSheetId="5">#REF!</definedName>
     <definedName name="_7.1.6._CR_IR364接続">#REF!</definedName>
+    <definedName name="_7.1.7._CR_IR356接続" localSheetId="5">#REF!</definedName>
     <definedName name="_7.1.7._CR_IR356接続">#REF!</definedName>
+    <definedName name="_7.1.8._DR立位タイプ読取機接続" localSheetId="5">#REF!</definedName>
     <definedName name="_7.1.8._DR立位タイプ読取機接続">#REF!</definedName>
+    <definedName name="_7.2._起動時間⇒削除" localSheetId="5">#REF!</definedName>
     <definedName name="_7.2._起動時間⇒削除">#REF!</definedName>
+    <definedName name="_7.3._終了時間⇒削除" localSheetId="5">#REF!</definedName>
     <definedName name="_7.3._終了時間⇒削除">#REF!</definedName>
+    <definedName name="_7.4._撮影メニューの展開時間" localSheetId="5">#REF!</definedName>
     <definedName name="_7.4._撮影メニューの展開時間">#REF!</definedName>
+    <definedName name="_7.5._画像確認機能での画像表示時間" localSheetId="5">#REF!</definedName>
     <definedName name="_7.5._画像確認機能での画像表示時間">#REF!</definedName>
+    <definedName name="_7.6._精細画像表示での画像表示時間" localSheetId="5">#REF!</definedName>
     <definedName name="_7.6._精細画像表示での画像表示時間">#REF!</definedName>
+    <definedName name="_8._インストール" localSheetId="5">#REF!</definedName>
     <definedName name="_8._インストール">#REF!</definedName>
+    <definedName name="_8.1._初期インストール" localSheetId="5">#REF!</definedName>
     <definedName name="_8.1._初期インストール">#REF!</definedName>
+    <definedName name="_8.1.1._環境の判別とシステムの設定" localSheetId="5">#REF!</definedName>
     <definedName name="_8.1.1._環境の判別とシステムの設定">#REF!</definedName>
+    <definedName name="_8.1.2._自動ログイン設定" localSheetId="5">#REF!</definedName>
     <definedName name="_8.1.2._自動ログイン設定">#REF!</definedName>
+    <definedName name="_8.1.3._ファイルのインストール" localSheetId="5">#REF!</definedName>
     <definedName name="_8.1.3._ファイルのインストール">#REF!</definedName>
+    <definedName name="_8.1.4._アプリケーションソフトウェアの起動設定" localSheetId="5">#REF!</definedName>
     <definedName name="_8.1.4._アプリケーションソフトウェアの起動設定">#REF!</definedName>
+    <definedName name="_8.2._バージョンアップインストール" localSheetId="5">#REF!</definedName>
     <definedName name="_8.2._バージョンアップインストール">#REF!</definedName>
+    <definedName name="_8.3._オプション機能の追加" localSheetId="5">#REF!</definedName>
     <definedName name="_8.3._オプション機能の追加">#REF!</definedName>
+    <definedName name="_8.4._ドライバ関連インストール" localSheetId="5">#REF!</definedName>
     <definedName name="_8.4._ドライバ関連インストール">#REF!</definedName>
+    <definedName name="_8.4.1._PEI_PSI基板ドライバ" localSheetId="5">#REF!</definedName>
     <definedName name="_8.4.1._PEI_PSI基板ドライバ">#REF!</definedName>
+    <definedName name="_8.4.2._USB機器用ドライバ" localSheetId="5">#REF!</definedName>
     <definedName name="_8.4.2._USB機器用ドライバ">#REF!</definedName>
+    <definedName name="_8.5._富士標準パラメータ" localSheetId="5">#REF!</definedName>
     <definedName name="_8.5._富士標準パラメータ">#REF!</definedName>
+    <definedName name="_8.5.1._パラメータファイルのインストール" localSheetId="5">#REF!</definedName>
     <definedName name="_8.5.1._パラメータファイルのインストール">#REF!</definedName>
+    <definedName name="_8.5.2._各国語別使用ファイル" localSheetId="5">#REF!</definedName>
     <definedName name="_8.5.2._各国語別使用ファイル">#REF!</definedName>
+    <definedName name="_8.5.3._各パラメータのバリエーション" localSheetId="5">#REF!</definedName>
     <definedName name="_8.5.3._各パラメータのバリエーション">#REF!</definedName>
+    <definedName name="_9._エラー対象_エラー対処方法" localSheetId="5">#REF!</definedName>
     <definedName name="_9._エラー対象_エラー対処方法">#REF!</definedName>
+    <definedName name="_9.1._エラー処理" localSheetId="5">#REF!</definedName>
     <definedName name="_9.1._エラー処理">#REF!</definedName>
+    <definedName name="_9.1.1._ログ保存方法" localSheetId="5">#REF!</definedName>
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
+    <definedName name="_9.1.2._ジャーナル処理" localSheetId="5">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
+    <definedName name="_A1" localSheetId="5">'[1]諸定義&amp;保守'!#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Viewpoint_Function (2)'!$J$2:$J$58</definedName>
     <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$20</definedName>
+    <definedName name="_Toc350025729" localSheetId="5">'Viewpoint_Function (2)'!$E$21</definedName>
     <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$41</definedName>
+    <definedName name="_Toc350025731" localSheetId="5">'Viewpoint_Function (2)'!$E$42</definedName>
     <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$66</definedName>
+    <definedName name="_Toc350025733" localSheetId="5">'Viewpoint_Function (2)'!$E$67</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="2">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
+    <definedName name="a" localSheetId="5">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="Ａ">[2]運用・保守サーバ!$G$50</definedName>
+    <definedName name="ACTION" localSheetId="5">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
+    <definedName name="ＢＯ" localSheetId="5">#REF!</definedName>
     <definedName name="ＢＯ">#REF!</definedName>
+    <definedName name="ＢＯ保守" localSheetId="5">#REF!</definedName>
     <definedName name="ＢＯ保守">#REF!</definedName>
+    <definedName name="data21" localSheetId="5">[3]QA１０２５!#REF!</definedName>
     <definedName name="data21">[3]QA１０２５!#REF!</definedName>
+    <definedName name="data31" localSheetId="5">[4]QA0037!#REF!</definedName>
     <definedName name="data31">[4]QA0037!#REF!</definedName>
+    <definedName name="data32" localSheetId="5">[4]QA0037!#REF!</definedName>
     <definedName name="data32">[4]QA0037!#REF!</definedName>
+    <definedName name="data33" localSheetId="5">[4]QA0037!#REF!</definedName>
     <definedName name="data33">[4]QA0037!#REF!</definedName>
+    <definedName name="data36" localSheetId="5">[3]QA１０２５!#REF!</definedName>
     <definedName name="data36">[3]QA１０２５!#REF!</definedName>
     <definedName name="Effectiveness">Characteristics!$G$3:$G$4</definedName>
     <definedName name="Flexibility">Characteristics!$I$3:$I$4</definedName>
@@ -301,26 +562,38 @@
     <definedName name="kkkkk" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="kkkkk" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="kkkkk" localSheetId="1" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
+    <definedName name="kkkkk" localSheetId="5" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="kkkkk" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="l">[5]管理シート!$A$5:$A$30</definedName>
     <definedName name="Maintenance">Characteristics!$H$3:$H$5</definedName>
     <definedName name="Member">[6]Master_Schedule!$GW$131:$GW$140</definedName>
+    <definedName name="PAGE00" localSheetId="5">[7]!PAGE00</definedName>
     <definedName name="PAGE00">[7]!PAGE00</definedName>
+    <definedName name="PBNEC" localSheetId="5">#REF!</definedName>
     <definedName name="PBNEC">#REF!</definedName>
+    <definedName name="PBNEC2" localSheetId="5">#REF!</definedName>
     <definedName name="PBNEC2">#REF!</definedName>
+    <definedName name="PBNEC2保守" localSheetId="5">#REF!</definedName>
     <definedName name="PBNEC2保守">#REF!</definedName>
+    <definedName name="PBNEC保守" localSheetId="5">#REF!</definedName>
     <definedName name="PBNEC保守">#REF!</definedName>
+    <definedName name="ＰＤ" localSheetId="5">#REF!</definedName>
     <definedName name="ＰＤ">#REF!</definedName>
+    <definedName name="ＰＤ保守" localSheetId="5">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
+    <definedName name="ＰＲ" localSheetId="5">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Viewpoint_Function (2)'!$A$1:$L$19</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
+    <definedName name="ＰＲ保守" localSheetId="5">#REF!</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="q" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="1" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
+    <definedName name="q" localSheetId="5" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="Reliability">Characteristics!$E$3:$E$4</definedName>
     <definedName name="Requirement">Characteristics!$D$3:$D$6</definedName>
@@ -328,54 +601,88 @@
     <definedName name="s" localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="s" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="s" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
+    <definedName name="s" localSheetId="5" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="s" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
+    <definedName name="SEL" localSheetId="5">#REF!</definedName>
     <definedName name="SEL">#REF!</definedName>
+    <definedName name="SQLNET" localSheetId="5">#REF!</definedName>
     <definedName name="SQLNET">#REF!</definedName>
+    <definedName name="SQLNET保守" localSheetId="5">#REF!</definedName>
     <definedName name="SQLNET保守">#REF!</definedName>
     <definedName name="ss" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="ss" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="ss" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="ss" localSheetId="1" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
+    <definedName name="ss" localSheetId="5" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="ss" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
+    <definedName name="STEP" localSheetId="5">#REF!</definedName>
     <definedName name="STEP">#REF!</definedName>
+    <definedName name="SYSTEMSCOPE" localSheetId="5">#REF!</definedName>
     <definedName name="SYSTEMSCOPE">#REF!</definedName>
+    <definedName name="SYSTEMSCOPE保守" localSheetId="5">#REF!</definedName>
     <definedName name="SYSTEMSCOPE保守">#REF!</definedName>
+    <definedName name="TableNo" localSheetId="5">#REF!</definedName>
     <definedName name="TableNo">#REF!</definedName>
+    <definedName name="TUXALL" localSheetId="5">#REF!</definedName>
     <definedName name="TUXALL">#REF!</definedName>
+    <definedName name="TUXALL保守" localSheetId="5">#REF!</definedName>
     <definedName name="TUXALL保守">#REF!</definedName>
+    <definedName name="TUXEDO" localSheetId="5">#REF!</definedName>
     <definedName name="TUXEDO">#REF!</definedName>
+    <definedName name="TUXEDO保守" localSheetId="5">#REF!</definedName>
     <definedName name="TUXEDO保守">#REF!</definedName>
     <definedName name="Usability">Characteristics!$F$3:$F$5</definedName>
     <definedName name="usernameTF">"usernameTF"</definedName>
+    <definedName name="ＷＥＢサーバＨＷ" localSheetId="5">#REF!</definedName>
     <definedName name="ＷＥＢサーバＨＷ">#REF!</definedName>
+    <definedName name="ＷＥＢサーバＨＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="ＷＥＢサーバＨＷ保守">#REF!</definedName>
+    <definedName name="ＷＥＢサーバＳＷ" localSheetId="5">#REF!</definedName>
     <definedName name="ＷＥＢサーバＳＷ">#REF!</definedName>
     <definedName name="wrn.すべて印刷." localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.すべて印刷." localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.すべて印刷." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.すべて印刷." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
+    <definedName name="wrn.すべて印刷." localSheetId="5" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.すべて印刷." hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.ｿｰｽ1." localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="wrn.ｿｰｽ1." localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="wrn.ｿｰｽ1." localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="wrn.ｿｰｽ1." localSheetId="1" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
+    <definedName name="wrn.ｿｰｽ1." localSheetId="5" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="wrn.ｿｰｽ1." hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
+    <definedName name="インプラント有無" localSheetId="5">#REF!</definedName>
     <definedName name="インプラント有無">#REF!</definedName>
+    <definedName name="エンドユーザ名" localSheetId="5">#REF!</definedName>
     <definedName name="エンドユーザ名">#REF!</definedName>
+    <definedName name="ゲートウェイサーバＨＷ" localSheetId="5">#REF!</definedName>
     <definedName name="ゲートウェイサーバＨＷ">#REF!</definedName>
+    <definedName name="ゲートウェイサーバＨＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="ゲートウェイサーバＨＷ保守">#REF!</definedName>
+    <definedName name="ゲートウェイサーバＳＷ" localSheetId="5">#REF!</definedName>
     <definedName name="ゲートウェイサーバＳＷ">#REF!</definedName>
+    <definedName name="ｽﾃｰﾀｽ" localSheetId="5">#REF!</definedName>
     <definedName name="ｽﾃｰﾀｽ">#REF!</definedName>
+    <definedName name="バーコード読み取りによる検査選択と作業開始" localSheetId="5">#REF!</definedName>
     <definedName name="バーコード読み取りによる検査選択と作業開始">#REF!</definedName>
+    <definedName name="ファックス番号" localSheetId="5">#REF!</definedName>
     <definedName name="ファックス番号">#REF!</definedName>
     <definedName name="フォーマット">[5]管理シート!$A$5:$A$30</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度基準値" localSheetId="5">#REF!</definedName>
     <definedName name="ﾚﾋﾞｭｰ密度基準値">#REF!</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度目標値" localSheetId="5">#REF!</definedName>
     <definedName name="ﾚﾋﾞｭｰ密度目標値">#REF!</definedName>
+    <definedName name="事業部名" localSheetId="5">#REF!</definedName>
     <definedName name="事業部名">#REF!</definedName>
+    <definedName name="件名" localSheetId="5">#REF!</definedName>
     <definedName name="件名">#REF!</definedName>
+    <definedName name="伊賀SV台数" localSheetId="5">#REF!</definedName>
     <definedName name="伊賀SV台数">#REF!</definedName>
+    <definedName name="会社名" localSheetId="5">#REF!</definedName>
     <definedName name="会社名">#REF!</definedName>
+    <definedName name="住所1" localSheetId="5">#REF!</definedName>
     <definedName name="住所1">#REF!</definedName>
+    <definedName name="住所2" localSheetId="5">#REF!</definedName>
     <definedName name="住所2">#REF!</definedName>
     <definedName name="作り込み原因">OFFSET([9]区分値!$BW$3,0,0,COUNTA([9]区分値!$BW$1:$BW$65536)-2,1)</definedName>
     <definedName name="使用性">Characteristics!$F$3:$F$5</definedName>
@@ -383,11 +690,16 @@
     <definedName name="信頼性">Characteristics!$E$3:$E$4</definedName>
     <definedName name="優先度">OFFSET([9]区分値!$BM$3,0,0,COUNTA([9]区分値!$BM$1:$BM$65536)-2,1)</definedName>
     <definedName name="処理種別">[10]Work!$E$3:$E$12</definedName>
+    <definedName name="出力済み検査の検査再開から出力まで" localSheetId="5">#REF!</definedName>
     <definedName name="出力済み検査の検査再開から出力まで">#REF!</definedName>
+    <definedName name="出力済み検査の画像確認から再出力まで" localSheetId="5">#REF!</definedName>
     <definedName name="出力済み検査の画像確認から再出力まで">#REF!</definedName>
     <definedName name="効率性">Characteristics!$G$3:$G$4</definedName>
+    <definedName name="北勢SV台数" localSheetId="5">#REF!</definedName>
     <definedName name="北勢SV台数">#REF!</definedName>
+    <definedName name="南勢志摩SV台数" localSheetId="5">#REF!</definedName>
     <definedName name="南勢志摩SV台数">#REF!</definedName>
+    <definedName name="単純Ｘ線撮影の作業ワークフローの提供" localSheetId="5">#REF!</definedName>
     <definedName name="単純Ｘ線撮影の作業ワークフローの提供">#REF!</definedName>
     <definedName name="原因分類_EB">OFFSET([9]区分値!$AK$4,0,0,COUNTA([9]区分値!$AK$1:$AK$65536)-3,1)</definedName>
     <definedName name="原因分類_ED">OFFSET([9]区分値!$Y$4,0,0,COUNTA([9]区分値!$Y$1:$Y$65536)-3,1)</definedName>
@@ -399,77 +711,133 @@
     <definedName name="原因分類_RD">OFFSET([9]区分値!$W$4,0,0,COUNTA([9]区分値!$W$1:$W$65536)-3,1)</definedName>
     <definedName name="原因分類_ST">OFFSET([9]区分値!$AG$4,0,0,COUNTA([9]区分値!$AG$1:$AG$65536)-3,1)</definedName>
     <definedName name="原因工程">OFFSET([9]区分値!$BO$3,0,0,COUNTA([9]区分値!$BO$1:$BO$65536)-2,1)</definedName>
+    <definedName name="受注期間１" localSheetId="5">#REF!</definedName>
     <definedName name="受注期間１">#REF!</definedName>
+    <definedName name="受注期間２" localSheetId="5">#REF!</definedName>
     <definedName name="受注期間２">#REF!</definedName>
+    <definedName name="受注見込年月" localSheetId="5">#REF!</definedName>
     <definedName name="受注見込年月">#REF!</definedName>
     <definedName name="品質副特性">Define!$C$6:$C$8,Define!$C$10,Define!$C$13:$C$14,Define!$C$17,Define!$C$19,Define!$C$21,Define!$C$23,Define!$C$24,Define!$C$27,Define!$C$29,Define!$C$30,Define!$C$33,Define!$C$36</definedName>
     <definedName name="品質特性" localSheetId="4">[11]Characteristics!$B$3:$B$8</definedName>
     <definedName name="品質特性">Characteristics!$B$3:$B$8</definedName>
+    <definedName name="在宅ＰＣ" localSheetId="5">#REF!</definedName>
     <definedName name="在宅ＰＣ">#REF!</definedName>
+    <definedName name="在宅ＰＣ保守" localSheetId="5">#REF!</definedName>
     <definedName name="在宅ＰＣ保守">#REF!</definedName>
+    <definedName name="在宅ｻｰﾊﾞ" localSheetId="5">#REF!</definedName>
     <definedName name="在宅ｻｰﾊﾞ">#REF!</definedName>
+    <definedName name="在宅ｻｰﾊﾞＳＷ" localSheetId="5">#REF!</definedName>
     <definedName name="在宅ｻｰﾊﾞＳＷ">#REF!</definedName>
+    <definedName name="在宅ｻｰﾊﾞ保守" localSheetId="5">#REF!</definedName>
     <definedName name="在宅ｻｰﾊﾞ保守">#REF!</definedName>
+    <definedName name="基幹ＡＰサーバＨＷ" localSheetId="5">#REF!</definedName>
     <definedName name="基幹ＡＰサーバＨＷ">#REF!</definedName>
+    <definedName name="基幹ＡＰサーバＨＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="基幹ＡＰサーバＨＷ保守">#REF!</definedName>
+    <definedName name="基幹ＡＰサーバＳＷ" localSheetId="5">#REF!</definedName>
     <definedName name="基幹ＡＰサーバＳＷ">#REF!</definedName>
+    <definedName name="基幹ＤＢサーバＨＷ" localSheetId="5">#REF!</definedName>
     <definedName name="基幹ＤＢサーバＨＷ">#REF!</definedName>
+    <definedName name="基幹ＤＢサーバＨＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="基幹ＤＢサーバＨＷ保守">#REF!</definedName>
+    <definedName name="基幹ＤＢサーバＳＷ" localSheetId="5">#REF!</definedName>
     <definedName name="基幹ＤＢサーバＳＷ">#REF!</definedName>
+    <definedName name="基幹ＤＢサーバＳＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="基幹ＤＢサーバＳＷ保守">#REF!</definedName>
+    <definedName name="売上区分名" localSheetId="5">#REF!</definedName>
     <definedName name="売上区分名">#REF!</definedName>
+    <definedName name="売上区分小計" localSheetId="5">#REF!</definedName>
     <definedName name="売上区分小計">#REF!</definedName>
+    <definedName name="売上詳細区分名" localSheetId="5">#REF!</definedName>
     <definedName name="売上詳細区分名">#REF!</definedName>
     <definedName name="対処確認結果_再テスト">OFFSET([9]区分値!$CF$3:$CF$3,0,0,COUNTA([9]区分値!$CF$1:$CF$65536)-2,1)</definedName>
     <definedName name="対処要否">OFFSET([9]区分値!$BU$3,0,0,COUNTA([9]区分値!$BU$1:$BU$65536)-2,1)</definedName>
     <definedName name="工程区分">OFFSET([9]区分値!$BE$3,0,0,COUNTA([9]区分値!$BE$1:$BE$65536)-2,1)</definedName>
     <definedName name="影響範囲">OFFSET([9]区分値!$BR$3,0,0,COUNTA([9]区分値!$BR$1:$BR$65536)-2,1)</definedName>
+    <definedName name="得意先名" localSheetId="5">#REF!</definedName>
     <definedName name="得意先名">#REF!</definedName>
+    <definedName name="情報系サーバＨＷ" localSheetId="5">#REF!</definedName>
     <definedName name="情報系サーバＨＷ">#REF!</definedName>
+    <definedName name="情報系サーバＨＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="情報系サーバＨＷ保守">#REF!</definedName>
+    <definedName name="情報系サーバＳＷ" localSheetId="5">#REF!</definedName>
     <definedName name="情報系サーバＳＷ">#REF!</definedName>
+    <definedName name="情報系サーバＳＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="情報系サーバＳＷ保守">#REF!</definedName>
+    <definedName name="指摘率基準値" localSheetId="5">#REF!</definedName>
     <definedName name="指摘率基準値">#REF!</definedName>
+    <definedName name="指摘率目標値" localSheetId="5">#REF!</definedName>
     <definedName name="指摘率目標値">#REF!</definedName>
+    <definedName name="提供金額" localSheetId="5">#REF!</definedName>
     <definedName name="提供金額">#REF!</definedName>
+    <definedName name="支払条件" localSheetId="5">#REF!</definedName>
     <definedName name="支払条件">#REF!</definedName>
     <definedName name="書式">[5]管理シート!$C$5:$C$30</definedName>
+    <definedName name="最大ﾚﾋﾞｭｰ密度" localSheetId="5">#REF!</definedName>
     <definedName name="最大ﾚﾋﾞｭｰ密度">#REF!</definedName>
+    <definedName name="最大指摘率" localSheetId="5">#REF!</definedName>
     <definedName name="最大指摘率">#REF!</definedName>
+    <definedName name="月間スケジュール抽出クエリー" localSheetId="5">#REF!</definedName>
     <definedName name="月間スケジュール抽出クエリー">#REF!</definedName>
+    <definedName name="松阪SV台数" localSheetId="5">#REF!</definedName>
     <definedName name="松阪SV台数">#REF!</definedName>
     <definedName name="検出漏れ原因_テスト">OFFSET([9]区分値!$CC$3,0,0,COUNTA([9]区分値!$CC$1:$CC$65536)-2,1)</definedName>
     <definedName name="検出漏れ原因_成果物レビュー">OFFSET([9]区分値!$BZ$3,0,0,COUNTA([9]区分値!$BZ$1:$BZ$65536)-2,1)</definedName>
+    <definedName name="検収日" localSheetId="5">#REF!</definedName>
     <definedName name="検収日">#REF!</definedName>
+    <definedName name="検査の共有" localSheetId="5">#REF!</definedName>
     <definedName name="検査の共有">#REF!</definedName>
+    <definedName name="検査の自動削除" localSheetId="5">#REF!</definedName>
     <definedName name="検査の自動削除">#REF!</definedName>
     <definedName name="機能性">Characteristics!$D$3:$D$6</definedName>
     <definedName name="津SV台数">'[12]#REF'!$E$52</definedName>
     <definedName name="発生事象_テスト">OFFSET([9]区分値!$BJ$4,0,0,COUNTA([9]区分値!$BJ$1:$BJ$65536)-3,1)</definedName>
     <definedName name="発生事象_レビュー">OFFSET([9]区分値!$BG$4,0,0,COUNTA([9]区分値!$BG$1:$BG$65536)-3,1)</definedName>
+    <definedName name="発行年月日" localSheetId="5">#REF!</definedName>
     <definedName name="発行年月日">#REF!</definedName>
+    <definedName name="県" localSheetId="5">#REF!</definedName>
     <definedName name="県">#REF!</definedName>
+    <definedName name="県庁SV①" localSheetId="5">#REF!</definedName>
     <definedName name="県庁SV①">#REF!</definedName>
+    <definedName name="県庁SV①台数" localSheetId="5">#REF!</definedName>
     <definedName name="県庁SV①台数">#REF!</definedName>
+    <definedName name="県庁SV②台数" localSheetId="5">#REF!</definedName>
     <definedName name="県庁SV②台数">#REF!</definedName>
+    <definedName name="確定度" localSheetId="5">#REF!</definedName>
     <definedName name="確定度">#REF!</definedName>
     <definedName name="移植性">Characteristics!$I$3:$I$4</definedName>
     <definedName name="種別">[5]管理シート!$E$5:$E$30</definedName>
+    <definedName name="紀北SV台数" localSheetId="5">#REF!</definedName>
     <definedName name="紀北SV台数">#REF!</definedName>
+    <definedName name="紀南SV台数" localSheetId="5">#REF!</definedName>
     <definedName name="紀南SV台数">#REF!</definedName>
+    <definedName name="見積伝票番号" localSheetId="5">#REF!</definedName>
     <definedName name="見積伝票番号">#REF!</definedName>
+    <definedName name="見積金額合計" localSheetId="5">#REF!</definedName>
     <definedName name="見積金額合計">#REF!</definedName>
+    <definedName name="計数入力サーバＨＷ" localSheetId="5">#REF!</definedName>
     <definedName name="計数入力サーバＨＷ">#REF!</definedName>
+    <definedName name="計数入力サーバＨＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="計数入力サーバＨＷ保守">#REF!</definedName>
+    <definedName name="計数入力サーバＳＷ" localSheetId="5">#REF!</definedName>
     <definedName name="計数入力サーバＳＷ">#REF!</definedName>
+    <definedName name="計数入力サーバＳＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="計数入力サーバＳＷ保守">#REF!</definedName>
+    <definedName name="運用保守サーバＨＷ" localSheetId="5">#REF!</definedName>
     <definedName name="運用保守サーバＨＷ">#REF!</definedName>
+    <definedName name="運用保守サーバＨＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="運用保守サーバＨＷ保守">#REF!</definedName>
+    <definedName name="運用保守サーバＳＷ" localSheetId="5">#REF!</definedName>
     <definedName name="運用保守サーバＳＷ">#REF!</definedName>
+    <definedName name="開発サーバＨＷ" localSheetId="5">#REF!</definedName>
     <definedName name="開発サーバＨＷ">#REF!</definedName>
+    <definedName name="開発サーバＨＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="開発サーバＨＷ保守">#REF!</definedName>
+    <definedName name="開発サーバＳＷ" localSheetId="5">#REF!</definedName>
     <definedName name="開発サーバＳＷ">#REF!</definedName>
+    <definedName name="開発サーバＳＷ保守" localSheetId="5">#REF!</definedName>
     <definedName name="開発サーバＳＷ保守">#REF!</definedName>
+    <definedName name="電話番号" localSheetId="5">#REF!</definedName>
     <definedName name="電話番号">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -551,7 +919,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="159">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1054,6 +1422,24 @@
   </si>
   <si>
     <t>Click "Đáp án" section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Items: 
++ N4&amp;N5's reading link
++ Test's reading link
+</t>
+  </si>
+  <si>
+    <t>1.2.2.3</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Click "Câu hỏi liên quan" section</t>
+  </si>
+  <si>
+    <t>Display question of reading</t>
   </si>
 </sst>
 </file>
@@ -3050,6 +3436,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3070,24 +3474,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6313,14 +6699,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6335,12 +6721,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6352,12 +6738,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6366,15 +6752,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6383,11 +6769,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6410,10 +6796,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6431,10 +6817,10 @@
       <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6448,8 +6834,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6457,8 +6843,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6466,8 +6852,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6475,8 +6861,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6484,8 +6870,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6493,8 +6879,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6502,6 +6888,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6509,12 +6901,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6530,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8670,4 +9056,1467 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7.875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="9" style="37"/>
+    <col min="6" max="6" width="9.625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="37" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="37.75" style="37" customWidth="1"/>
+    <col min="12" max="12" width="42.875" style="37" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="38" customFormat="1">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+    </row>
+    <row r="2" spans="1:12" s="38" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="1:12" s="39" customFormat="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+    </row>
+    <row r="6" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41">
+        <v>1</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+    </row>
+    <row r="7" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" spans="1:12" s="44" customFormat="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" spans="1:12" s="44" customFormat="1" ht="54">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="44" customFormat="1" ht="94.5">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="44" customFormat="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" s="44" customFormat="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="55"/>
+    </row>
+    <row r="16" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1">
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="72"/>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+    </row>
+    <row r="22" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="72"/>
+    </row>
+    <row r="24" spans="1:12" s="44" customFormat="1">
+      <c r="A24" s="64"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="72"/>
+    </row>
+    <row r="25" spans="1:12" s="44" customFormat="1">
+      <c r="A25" s="64"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="72"/>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1">
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1">
+      <c r="A27" s="64"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="74"/>
+    </row>
+    <row r="28" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:12" s="44" customFormat="1">
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+    </row>
+    <row r="30" spans="1:12" s="44" customFormat="1">
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+    </row>
+    <row r="31" spans="1:12" s="44" customFormat="1">
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+    </row>
+    <row r="32" spans="1:12" s="44" customFormat="1">
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+    </row>
+    <row r="33" spans="1:12" s="44" customFormat="1">
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+    </row>
+    <row r="34" spans="1:12" s="44" customFormat="1">
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+    </row>
+    <row r="35" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+    </row>
+    <row r="36" spans="1:12" s="44" customFormat="1">
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+    </row>
+    <row r="37" spans="1:12" s="44" customFormat="1">
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+    </row>
+    <row r="38" spans="1:12" s="44" customFormat="1">
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+    </row>
+    <row r="39" spans="1:12" s="44" customFormat="1">
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+    </row>
+    <row r="40" spans="1:12" s="44" customFormat="1">
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+    </row>
+    <row r="41" spans="1:12" s="44" customFormat="1">
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+    </row>
+    <row r="42" spans="1:12" s="44" customFormat="1">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+    </row>
+    <row r="43" spans="1:12" s="44" customFormat="1">
+      <c r="A43" s="64"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+    </row>
+    <row r="44" spans="1:12" s="44" customFormat="1">
+      <c r="A44" s="64"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="72"/>
+    </row>
+    <row r="45" spans="1:12" s="44" customFormat="1">
+      <c r="A45" s="64"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="72"/>
+    </row>
+    <row r="46" spans="1:12" s="44" customFormat="1">
+      <c r="A46" s="64"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="72"/>
+    </row>
+    <row r="47" spans="1:12" s="44" customFormat="1">
+      <c r="A47" s="64"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="72"/>
+    </row>
+    <row r="48" spans="1:12" s="44" customFormat="1">
+      <c r="A48" s="64"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="72"/>
+    </row>
+    <row r="49" spans="1:12" s="44" customFormat="1">
+      <c r="A49" s="64"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="72"/>
+    </row>
+    <row r="50" spans="1:12" s="44" customFormat="1">
+      <c r="A50" s="64"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="72"/>
+    </row>
+    <row r="51" spans="1:12" s="44" customFormat="1">
+      <c r="A51" s="64"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="72"/>
+    </row>
+    <row r="52" spans="1:12" s="44" customFormat="1">
+      <c r="A52" s="64"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="72"/>
+    </row>
+    <row r="53" spans="1:12" s="44" customFormat="1">
+      <c r="A53" s="64"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="72"/>
+    </row>
+    <row r="54" spans="1:12" s="44" customFormat="1">
+      <c r="A54" s="64"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+    </row>
+    <row r="55" spans="1:12" s="44" customFormat="1">
+      <c r="A55" s="64"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+    </row>
+    <row r="56" spans="1:12" s="44" customFormat="1">
+      <c r="A56" s="64"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
+    </row>
+    <row r="57" spans="1:12" s="44" customFormat="1">
+      <c r="A57" s="64"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="66"/>
+    </row>
+    <row r="58" spans="1:12" s="44" customFormat="1">
+      <c r="A58" s="64"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+    </row>
+    <row r="59" spans="1:12" s="44" customFormat="1">
+      <c r="A59" s="64"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+    </row>
+    <row r="60" spans="1:12" s="44" customFormat="1">
+      <c r="A60" s="64"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+    </row>
+    <row r="61" spans="1:12" s="44" customFormat="1">
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="69"/>
+    </row>
+    <row r="62" spans="1:12" s="44" customFormat="1">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+    </row>
+    <row r="63" spans="1:12" s="44" customFormat="1">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="76"/>
+    </row>
+    <row r="64" spans="1:12" s="44" customFormat="1">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="76"/>
+    </row>
+    <row r="65" spans="1:13" s="44" customFormat="1">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="76"/>
+    </row>
+    <row r="66" spans="1:13" s="44" customFormat="1">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="76"/>
+    </row>
+    <row r="67" spans="1:13" s="44" customFormat="1">
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="69"/>
+    </row>
+    <row r="68" spans="1:13" s="44" customFormat="1">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="76"/>
+    </row>
+    <row r="69" spans="1:13" s="44" customFormat="1">
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="76"/>
+    </row>
+    <row r="70" spans="1:13" s="44" customFormat="1">
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="70"/>
+      <c r="L70" s="69"/>
+    </row>
+    <row r="71" spans="1:13" s="44" customFormat="1">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="76"/>
+      <c r="M71" s="37"/>
+    </row>
+    <row r="72" spans="1:13" s="44" customFormat="1">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="37"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="69"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="44"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="64"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+    </row>
+    <row r="75" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A75" s="64"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="37"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="69"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="70"/>
+      <c r="L76" s="69"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="44"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+    </row>
+    <row r="81" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="37"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="44"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+    </row>
+    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="37"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="44"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="44"/>
+    </row>
+    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A87" s="64"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="37"/>
+    </row>
+    <row r="88" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A88" s="64"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="66"/>
+      <c r="L88" s="66"/>
+      <c r="M88" s="37"/>
+    </row>
+    <row r="96" spans="1:13" ht="37.5" customHeight="1"/>
+    <row r="97" ht="37.5" customHeight="1"/>
+    <row r="98" ht="37.5" customHeight="1"/>
+    <row r="99" ht="37.5" customHeight="1"/>
+    <row r="101" ht="18" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="106" ht="30" customHeight="1"/>
+    <row r="110" ht="44.25" customHeight="1"/>
+    <row r="111" ht="45" customHeight="1"/>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="12">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J62:J66 J68:J69 J75 J71:J72 J43:J60 J22:J41 J87:J88 J8:J11 J14:J20">
+      <formula1>INDIRECT($I8)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I87:I88 I22:I41 I43:I60 I71:I72 I68:I69 I62:I66 I75 I8:I11 I14:I20">
+      <formula1>品質特性</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H87:H88 H22:H73 H75:H76 H8:H11 H14:H20">
+      <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J73 J42 J70 J67 J61 J76">
+      <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I73 I42 I70 I67 I61 I76">
+      <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
-    <sheet name="Viewpoint_Function" sheetId="2" r:id="rId2"/>
+    <sheet name="Viewpoint funtion" sheetId="7" r:id="rId2"/>
     <sheet name="Screen" sheetId="3" r:id="rId3"/>
     <sheet name="Characteristics" sheetId="4" r:id="rId4"/>
     <sheet name="Define" sheetId="5" r:id="rId5"/>
-    <sheet name="Viewpoint_Function (2)" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -26,534 +26,528 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_1._はじめに" localSheetId="5">#REF!</definedName>
+    <definedName name="_1._はじめに" localSheetId="1">#REF!</definedName>
     <definedName name="_1._はじめに">#REF!</definedName>
-    <definedName name="_1.1._本書の位置付け" localSheetId="5">#REF!</definedName>
+    <definedName name="_1.1._本書の位置付け" localSheetId="1">#REF!</definedName>
     <definedName name="_1.1._本書の位置付け">#REF!</definedName>
-    <definedName name="_1.2._適用範囲" localSheetId="5">#REF!</definedName>
+    <definedName name="_1.2._適用範囲" localSheetId="1">#REF!</definedName>
     <definedName name="_1.2._適用範囲">#REF!</definedName>
-    <definedName name="_1.3._製品の位置付け" localSheetId="5">#REF!</definedName>
+    <definedName name="_1.3._製品の位置付け" localSheetId="1">#REF!</definedName>
     <definedName name="_1.3._製品の位置付け">#REF!</definedName>
-    <definedName name="_1.4._DR_Console_V1.0_V2.0開発内容の記載についての注意" localSheetId="5">#REF!</definedName>
+    <definedName name="_1.4._DR_Console_V1.0_V2.0開発内容の記載についての注意" localSheetId="1">#REF!</definedName>
     <definedName name="_1.4._DR_Console_V1.0_V2.0開発内容の記載についての注意">#REF!</definedName>
-    <definedName name="_1.gfjsahfk" localSheetId="5">#REF!</definedName>
+    <definedName name="_1.gfjsahfk" localSheetId="1">#REF!</definedName>
     <definedName name="_1.gfjsahfk">#REF!</definedName>
-    <definedName name="_10._ヒューマンファクター" localSheetId="5">#REF!</definedName>
+    <definedName name="_10._ヒューマンファクター" localSheetId="1">#REF!</definedName>
     <definedName name="_10._ヒューマンファクター">#REF!</definedName>
-    <definedName name="_10.1._アプリケーションの起動と終了" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.1._アプリケーションの起動と終了" localSheetId="1">#REF!</definedName>
     <definedName name="_10.1._アプリケーションの起動と終了">#REF!</definedName>
-    <definedName name="_10.2._周辺機器" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.2._周辺機器" localSheetId="1">#REF!</definedName>
     <definedName name="_10.2._周辺機器">#REF!</definedName>
-    <definedName name="_10.3._画面表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.3._画面表示" localSheetId="1">#REF!</definedName>
     <definedName name="_10.3._画面表示">#REF!</definedName>
-    <definedName name="_10.3.1._アイコン" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.3.1._アイコン" localSheetId="1">#REF!</definedName>
     <definedName name="_10.3.1._アイコン">#REF!</definedName>
-    <definedName name="_10.3.2._画面の配色" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.3.2._画面の配色" localSheetId="1">#REF!</definedName>
     <definedName name="_10.3.2._画面の配色">#REF!</definedName>
-    <definedName name="_10.3.3._画面のレイアウト" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.3.3._画面のレイアウト" localSheetId="1">#REF!</definedName>
     <definedName name="_10.3.3._画面のレイアウト">#REF!</definedName>
-    <definedName name="_10.3.4._文字表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.3.4._文字表示" localSheetId="1">#REF!</definedName>
     <definedName name="_10.3.4._文字表示">#REF!</definedName>
-    <definedName name="_10.4._表示言語" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.4._表示言語" localSheetId="1">#REF!</definedName>
     <definedName name="_10.4._表示言語">#REF!</definedName>
-    <definedName name="_10.5._ユーザへの通知" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.5._ユーザへの通知" localSheetId="1">#REF!</definedName>
     <definedName name="_10.5._ユーザへの通知">#REF!</definedName>
-    <definedName name="_10.5.1._ステータス_エラーメッセージ表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.5.1._ステータス_エラーメッセージ表示" localSheetId="1">#REF!</definedName>
     <definedName name="_10.5.1._ステータス_エラーメッセージ表示">#REF!</definedName>
-    <definedName name="_10.5.2._サウンド通知" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.5.2._サウンド通知" localSheetId="1">#REF!</definedName>
     <definedName name="_10.5.2._サウンド通知">#REF!</definedName>
-    <definedName name="_10.6._送り先装置異常" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.6._送り先装置異常" localSheetId="1">#REF!</definedName>
     <definedName name="_10.6._送り先装置異常">#REF!</definedName>
-    <definedName name="_10.7._日本語環境における文字の扱い" localSheetId="5">#REF!</definedName>
+    <definedName name="_10.7._日本語環境における文字の扱い" localSheetId="1">#REF!</definedName>
     <definedName name="_10.7._日本語環境における文字の扱い">#REF!</definedName>
-    <definedName name="_11._セキュリティ上の要求事項" localSheetId="5">#REF!</definedName>
+    <definedName name="_11._セキュリティ上の要求事項" localSheetId="1">#REF!</definedName>
     <definedName name="_11._セキュリティ上の要求事項">#REF!</definedName>
-    <definedName name="_12._ユーザドキュメント" localSheetId="5">#REF!</definedName>
+    <definedName name="_12._ユーザドキュメント" localSheetId="1">#REF!</definedName>
     <definedName name="_12._ユーザドキュメント">#REF!</definedName>
-    <definedName name="_13._適用法規" localSheetId="5">#REF!</definedName>
+    <definedName name="_13._適用法規" localSheetId="1">#REF!</definedName>
     <definedName name="_13._適用法規">#REF!</definedName>
-    <definedName name="_14._修理_メンテナンス関連" localSheetId="5">#REF!</definedName>
+    <definedName name="_14._修理_メンテナンス関連" localSheetId="1">#REF!</definedName>
     <definedName name="_14._修理_メンテナンス関連">#REF!</definedName>
-    <definedName name="_14.1._定期点検" localSheetId="5">#REF!</definedName>
+    <definedName name="_14.1._定期点検" localSheetId="1">#REF!</definedName>
     <definedName name="_14.1._定期点検">#REF!</definedName>
-    <definedName name="_14.2._障害発生時のデータ保管" localSheetId="5">#REF!</definedName>
+    <definedName name="_14.2._障害発生時のデータ保管" localSheetId="1">#REF!</definedName>
     <definedName name="_14.2._障害発生時のデータ保管">#REF!</definedName>
-    <definedName name="_14.3._ソフトウェアのメンテナンス" localSheetId="5">#REF!</definedName>
+    <definedName name="_14.3._ソフトウェアのメンテナンス" localSheetId="1">#REF!</definedName>
     <definedName name="_14.3._ソフトウェアのメンテナンス">#REF!</definedName>
-    <definedName name="_14.4._リモートメンテナンス_DRCSL_V1V2Add" localSheetId="5">#REF!</definedName>
+    <definedName name="_14.4._リモートメンテナンス_DRCSL_V1V2Add" localSheetId="1">#REF!</definedName>
     <definedName name="_14.4._リモートメンテナンス_DRCSL_V1V2Add">#REF!</definedName>
-    <definedName name="_15._OEM供給_DRCSL_V1V2Add" localSheetId="5">#REF!</definedName>
+    <definedName name="_15._OEM供給_DRCSL_V1V2Add" localSheetId="1">#REF!</definedName>
     <definedName name="_15._OEM供給_DRCSL_V1V2Add">#REF!</definedName>
-    <definedName name="_2._ソフトウェアパッケージ" localSheetId="5">#REF!</definedName>
+    <definedName name="_2._ソフトウェアパッケージ" localSheetId="1">#REF!</definedName>
     <definedName name="_2._ソフトウェアパッケージ">#REF!</definedName>
-    <definedName name="_2.1_アプリケーションソフトウェア本体" localSheetId="5">#REF!</definedName>
+    <definedName name="_2.1_アプリケーションソフトウェア本体" localSheetId="1">#REF!</definedName>
     <definedName name="_2.1_アプリケーションソフトウェア本体">#REF!</definedName>
-    <definedName name="_2.2_アプリケーションソフトウェア有効化キー" localSheetId="5">#REF!</definedName>
+    <definedName name="_2.2_アプリケーションソフトウェア有効化キー" localSheetId="1">#REF!</definedName>
     <definedName name="_2.2_アプリケーションソフトウェア有効化キー">#REF!</definedName>
-    <definedName name="_2.3._オプションソフトウェア" localSheetId="5">#REF!</definedName>
+    <definedName name="_2.3._オプションソフトウェア" localSheetId="1">#REF!</definedName>
     <definedName name="_2.3._オプションソフトウェア">#REF!</definedName>
-    <definedName name="_2.3.1._外部接続機器関連のオプション機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_2.3.1._外部接続機器関連のオプション機能" localSheetId="1">#REF!</definedName>
     <definedName name="_2.3.1._外部接続機器関連のオプション機能">#REF!</definedName>
-    <definedName name="_2.3.2._画像処理関連のオプション機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_2.3.2._画像処理関連のオプション機能" localSheetId="1">#REF!</definedName>
     <definedName name="_2.3.2._画像処理関連のオプション機能">#REF!</definedName>
-    <definedName name="_2.3.3._画像処理パラメータのインタラクティブな調整に関するオプション機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_2.3.3._画像処理パラメータのインタラクティブな調整に関するオプション機能" localSheetId="1">#REF!</definedName>
     <definedName name="_2.3.3._画像処理パラメータのインタラクティブな調整に関するオプション機能">#REF!</definedName>
-    <definedName name="_2.3.4._その他のオプション機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_2.3.4._その他のオプション機能" localSheetId="1">#REF!</definedName>
     <definedName name="_2.3.4._その他のオプション機能">#REF!</definedName>
-    <definedName name="_2.3.5._オプションパッケージ" localSheetId="5">#REF!</definedName>
+    <definedName name="_2.3.5._オプションパッケージ" localSheetId="1">#REF!</definedName>
     <definedName name="_2.3.5._オプションパッケージ">#REF!</definedName>
-    <definedName name="_3._ハードウェア環境" localSheetId="5">#REF!</definedName>
+    <definedName name="_3._ハードウェア環境" localSheetId="1">#REF!</definedName>
     <definedName name="_3._ハードウェア環境">#REF!</definedName>
-    <definedName name="_3.1._PC" localSheetId="5">#REF!</definedName>
+    <definedName name="_3.1._PC" localSheetId="1">#REF!</definedName>
     <definedName name="_3.1._PC">#REF!</definedName>
-    <definedName name="_3.2._モニタ" localSheetId="5">#REF!</definedName>
+    <definedName name="_3.2._モニタ" localSheetId="1">#REF!</definedName>
     <definedName name="_3.2._モニタ">#REF!</definedName>
-    <definedName name="_3.3._その他ハードウェア" localSheetId="5">#REF!</definedName>
+    <definedName name="_3.3._その他ハードウェア" localSheetId="1">#REF!</definedName>
     <definedName name="_3.3._その他ハードウェア">#REF!</definedName>
-    <definedName name="_4._ソフトウェア環境" localSheetId="5">#REF!</definedName>
+    <definedName name="_4._ソフトウェア環境" localSheetId="1">#REF!</definedName>
     <definedName name="_4._ソフトウェア環境">#REF!</definedName>
-    <definedName name="_4.1._OS" localSheetId="5">#REF!</definedName>
+    <definedName name="_4.1._OS" localSheetId="1">#REF!</definedName>
     <definedName name="_4.1._OS">#REF!</definedName>
-    <definedName name="_4.2._連携ソフトウェア" localSheetId="5">#REF!</definedName>
+    <definedName name="_4.2._連携ソフトウェア" localSheetId="1">#REF!</definedName>
     <definedName name="_4.2._連携ソフトウェア">#REF!</definedName>
-    <definedName name="_4.3._その他OTSソフトウェア" localSheetId="5">#REF!</definedName>
+    <definedName name="_4.3._その他OTSソフトウェア" localSheetId="1">#REF!</definedName>
     <definedName name="_4.3._その他OTSソフトウェア">#REF!</definedName>
-    <definedName name="_5._インターフェースする機器" localSheetId="5">#REF!</definedName>
+    <definedName name="_5._インターフェースする機器" localSheetId="1">#REF!</definedName>
     <definedName name="_5._インターフェースする機器">#REF!</definedName>
-    <definedName name="_5.1._FCR画像読取装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.1._FCR画像読取装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.1._FCR画像読取装置">#REF!</definedName>
-    <definedName name="_5.1.1._接続する装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.1.1._接続する装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.1.1._接続する装置">#REF!</definedName>
-    <definedName name="_5.1.2._機器の接続台数" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.1.2._機器の接続台数" localSheetId="1">#REF!</definedName>
     <definedName name="_5.1.2._機器の接続台数">#REF!</definedName>
-    <definedName name="_5.2._ハードコピー装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.2._ハードコピー装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.2._ハードコピー装置">#REF!</definedName>
-    <definedName name="_5.2.1._接続する装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.2.1._接続する装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.2.1._接続する装置">#REF!</definedName>
-    <definedName name="_5.2.2._機器の接続台数" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.2.2._機器の接続台数" localSheetId="1">#REF!</definedName>
     <definedName name="_5.2.2._機器の接続台数">#REF!</definedName>
-    <definedName name="_5.3._ワークステーション" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.3._ワークステーション" localSheetId="1">#REF!</definedName>
     <definedName name="_5.3._ワークステーション">#REF!</definedName>
-    <definedName name="_5.3.1._接続する装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.3.1._接続する装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.3.1._接続する装置">#REF!</definedName>
-    <definedName name="_5.3.2._機器の接続台数" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.3.2._機器の接続台数" localSheetId="1">#REF!</definedName>
     <definedName name="_5.3.2._機器の接続台数">#REF!</definedName>
-    <definedName name="_5.4._ストレージ装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.4._ストレージ装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.4._ストレージ装置">#REF!</definedName>
-    <definedName name="_5.4.1._接続する装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.4.1._接続する装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.4.1._接続する装置">#REF!</definedName>
-    <definedName name="_5.4.2._機器の接続台数" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.4.2._機器の接続台数" localSheetId="1">#REF!</definedName>
     <definedName name="_5.4.2._機器の接続台数">#REF!</definedName>
-    <definedName name="_5.5._ID_Terminal_DRCSL_V1V2制限_ID_Tとの接続はサポートしない。" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.5._ID_Terminal_DRCSL_V1V2制限_ID_Tとの接続はサポートしない。" localSheetId="1">#REF!</definedName>
     <definedName name="_5.5._ID_Terminal_DRCSL_V1V2制限_ID_Tとの接続はサポートしない。">#REF!</definedName>
-    <definedName name="_5.5.1._接続する装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.5.1._接続する装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.5.1._接続する装置">#REF!</definedName>
-    <definedName name="_5.5.2._機器の接続台数" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.5.2._機器の接続台数" localSheetId="1">#REF!</definedName>
     <definedName name="_5.5.2._機器の接続台数">#REF!</definedName>
-    <definedName name="_5.6._RIS" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.6._RIS" localSheetId="1">#REF!</definedName>
     <definedName name="_5.6._RIS">#REF!</definedName>
-    <definedName name="_5.6.1._DICOM_MWM___PPSで接続する装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.6.1._DICOM_MWM___PPSで接続する装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.6.1._DICOM_MWM___PPSで接続する装置">#REF!</definedName>
-    <definedName name="_5.6.2._DICOM_MWM___PPSで機器の接続台数" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.6.2._DICOM_MWM___PPSで機器の接続台数" localSheetId="1">#REF!</definedName>
     <definedName name="_5.6.2._DICOM_MWM___PPSで機器の接続台数">#REF!</definedName>
-    <definedName name="_5.7._レセコン_DRCSL_V1V2制限_各社レセコン_FCR簡易オーダリングへの接続を禁止" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.7._レセコン_DRCSL_V1V2制限_各社レセコン_FCR簡易オーダリングへの接続を禁止" localSheetId="1">#REF!</definedName>
     <definedName name="_5.7._レセコン_DRCSL_V1V2制限_各社レセコン_FCR簡易オーダリングへの接続を禁止">#REF!</definedName>
-    <definedName name="_5.7.1._接続する装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.7.1._接続する装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.7.1._接続する装置">#REF!</definedName>
-    <definedName name="_5.7.2._機器の接続台数" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.7.2._機器の接続台数" localSheetId="1">#REF!</definedName>
     <definedName name="_5.7.2._機器の接続台数">#REF!</definedName>
-    <definedName name="_5.8._X_CON装置_DRCSL_V1V2制限_島津製DR撮影装置用以外のX線コントローラ_X_CON_の接続を禁止" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.8._X_CON装置_DRCSL_V1V2制限_島津製DR撮影装置用以外のX線コントローラ_X_CON_の接続を禁止" localSheetId="1">#REF!</definedName>
     <definedName name="_5.8._X_CON装置_DRCSL_V1V2制限_島津製DR撮影装置用以外のX線コントローラ_X_CON_の接続を禁止">#REF!</definedName>
-    <definedName name="_5.8.1._接続する装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.8.1._接続する装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.8.1._接続する装置">#REF!</definedName>
-    <definedName name="_5.8.2._機器の接続台数" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.8.2._機器の接続台数" localSheetId="1">#REF!</definedName>
     <definedName name="_5.8.2._機器の接続台数">#REF!</definedName>
-    <definedName name="_5.9._マンモグラフィーX_CON装置_DRCSL_V1V2制限_マンモには対応しない" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.9._マンモグラフィーX_CON装置_DRCSL_V1V2制限_マンモには対応しない" localSheetId="1">#REF!</definedName>
     <definedName name="_5.9._マンモグラフィーX_CON装置_DRCSL_V1V2制限_マンモには対応しない">#REF!</definedName>
-    <definedName name="_5.9.1._接続する装置" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.9.1._接続する装置" localSheetId="1">#REF!</definedName>
     <definedName name="_5.9.1._接続する装置">#REF!</definedName>
-    <definedName name="_5.9.2._機器の接続台数" localSheetId="5">#REF!</definedName>
+    <definedName name="_5.9.2._機器の接続台数" localSheetId="1">#REF!</definedName>
     <definedName name="_5.9.2._機器の接続台数">#REF!</definedName>
-    <definedName name="_6.__機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.__機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.__機能">#REF!</definedName>
-    <definedName name="_6.1.__単純Ｘ線撮影の作業ワークフローの提供" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.1.__単純Ｘ線撮影の作業ワークフローの提供" localSheetId="1">#REF!</definedName>
     <definedName name="_6.1.__単純Ｘ線撮影の作業ワークフローの提供">#REF!</definedName>
-    <definedName name="_6.1.1.__１検査の登録から出力まで" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.1.1.__１検査の登録から出力まで" localSheetId="1">#REF!</definedName>
     <definedName name="_6.1.1.__１検査の登録から出力まで">#REF!</definedName>
-    <definedName name="_6.1.2.__複数検査の実施から出力まで" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.1.2.__複数検査の実施から出力まで" localSheetId="1">#REF!</definedName>
     <definedName name="_6.1.2.__複数検査の実施から出力まで">#REF!</definedName>
-    <definedName name="_6.1.3.__出力済み検査の画像確認から再出力まで" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.1.3.__出力済み検査の画像確認から再出力まで" localSheetId="1">#REF!</definedName>
     <definedName name="_6.1.3.__出力済み検査の画像確認から再出力まで">#REF!</definedName>
-    <definedName name="_6.1.4.__未出力検査の削除" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.1.4.__未出力検査の削除" localSheetId="1">#REF!</definedName>
     <definedName name="_6.1.4.__未出力検査の削除">#REF!</definedName>
-    <definedName name="_6.1.5.__検査の自動削除" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.1.5.__検査の自動削除" localSheetId="1">#REF!</definedName>
     <definedName name="_6.1.5.__検査の自動削除">#REF!</definedName>
-    <definedName name="_6.1.6.__検査の共有" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.1.6.__検査の共有" localSheetId="1">#REF!</definedName>
     <definedName name="_6.1.6.__検査の共有">#REF!</definedName>
-    <definedName name="_6.1.7.__バーコード読み取りによる検査選択と作業開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.1.7.__バーコード読み取りによる検査選択と作業開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.1.7.__バーコード読み取りによる検査選択と作業開始">#REF!</definedName>
-    <definedName name="_6.10.1._接続装置と接続装置ごとの処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.10.1._接続装置と接続装置ごとの処理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.10.1._接続装置と接続装置ごとの処理">#REF!</definedName>
-    <definedName name="_6.10.2.__画像処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.10.2.__画像処理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.10.2.__画像処理">#REF!</definedName>
-    <definedName name="_6.10.3.__出力時の制御" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.10.3.__出力時の制御" localSheetId="1">#REF!</definedName>
     <definedName name="_6.10.3.__出力時の制御">#REF!</definedName>
-    <definedName name="_6.10.ソフトコピー出力__「ストレージ装置」への出力への出力" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.10.ソフトコピー出力__「ストレージ装置」への出力への出力" localSheetId="1">#REF!</definedName>
     <definedName name="_6.10.ソフトコピー出力__「ストレージ装置」への出力への出力">#REF!</definedName>
-    <definedName name="_6.11._画像処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.11._画像処理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.11._画像処理">#REF!</definedName>
-    <definedName name="_6.12._フィルム再出力のための画像受信" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.12._フィルム再出力のための画像受信" localSheetId="1">#REF!</definedName>
     <definedName name="_6.12._フィルム再出力のための画像受信">#REF!</definedName>
-    <definedName name="_6.12.1._使用するプロトコル" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.12.1._使用するプロトコル" localSheetId="1">#REF!</definedName>
     <definedName name="_6.12.1._使用するプロトコル">#REF!</definedName>
-    <definedName name="_6.12.2._画像の受け取り" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.12.2._画像の受け取り" localSheetId="1">#REF!</definedName>
     <definedName name="_6.12.2._画像の受け取り">#REF!</definedName>
-    <definedName name="_6.12.3._フィルム出力" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.12.3._フィルム出力" localSheetId="1">#REF!</definedName>
     <definedName name="_6.12.3._フィルム出力">#REF!</definedName>
-    <definedName name="_6.13._フィルム再出力のための画像検索と受信_DRCSL_V1V2制限" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.13._フィルム再出力のための画像検索と受信_DRCSL_V1V2制限" localSheetId="1">#REF!</definedName>
     <definedName name="_6.13._フィルム再出力のための画像検索と受信_DRCSL_V1V2制限">#REF!</definedName>
-    <definedName name="_6.13.1._ストレージ装置への問い合わせ" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.13.1._ストレージ装置への問い合わせ" localSheetId="1">#REF!</definedName>
     <definedName name="_6.13.1._ストレージ装置への問い合わせ">#REF!</definedName>
-    <definedName name="_6.13.2._ストレージ装置からの画像取得_Retrieve" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.13.2._ストレージ装置からの画像取得_Retrieve" localSheetId="1">#REF!</definedName>
     <definedName name="_6.13.2._ストレージ装置からの画像取得_Retrieve">#REF!</definedName>
-    <definedName name="_6.13.3._フイルム出力" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.13.3._フイルム出力" localSheetId="1">#REF!</definedName>
     <definedName name="_6.13.3._フイルム出力">#REF!</definedName>
-    <definedName name="_6.14._ユーザユーティリティ" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.14._ユーザユーティリティ" localSheetId="1">#REF!</definedName>
     <definedName name="_6.14._ユーザユーティリティ">#REF!</definedName>
-    <definedName name="_6.14.1._マスター情報のシステム登録" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.14.1._マスター情報のシステム登録" localSheetId="1">#REF!</definedName>
     <definedName name="_6.14.1._マスター情報のシステム登録">#REF!</definedName>
-    <definedName name="_6.14.2._マスター情報の表示および変更" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.14.2._マスター情報の表示および変更" localSheetId="1">#REF!</definedName>
     <definedName name="_6.14.2._マスター情報の表示および変更">#REF!</definedName>
-    <definedName name="_6.14.3._マスター情報の保存および復元" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.14.3._マスター情報の保存および復元" localSheetId="1">#REF!</definedName>
     <definedName name="_6.14.3._マスター情報の保存および復元">#REF!</definedName>
-    <definedName name="_6.14.4._環境設定" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.14.4._環境設定" localSheetId="1">#REF!</definedName>
     <definedName name="_6.14.4._環境設定">#REF!</definedName>
-    <definedName name="_6.14.5._撮影結果ログ保存" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.14.5._撮影結果ログ保存" localSheetId="1">#REF!</definedName>
     <definedName name="_6.14.5._撮影結果ログ保存">#REF!</definedName>
-    <definedName name="_6.14.6._IP利用回数集計" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.14.6._IP利用回数集計" localSheetId="1">#REF!</definedName>
     <definedName name="_6.14.6._IP利用回数集計">#REF!</definedName>
-    <definedName name="_6.14.7._Retake_Analisys機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.14.7._Retake_Analisys機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.14.7._Retake_Analisys機能">#REF!</definedName>
-    <definedName name="_6.15._メンテナンス機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.15._メンテナンス機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.15._メンテナンス機能">#REF!</definedName>
-    <definedName name="_6.15.1._起動方法" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.15.1._起動方法" localSheetId="1">#REF!</definedName>
     <definedName name="_6.15.1._起動方法">#REF!</definedName>
-    <definedName name="_6.15.2._システム設定の表示および変更" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.15.2._システム設定の表示および変更" localSheetId="1">#REF!</definedName>
     <definedName name="_6.15.2._システム設定の表示および変更">#REF!</definedName>
-    <definedName name="_6.15.3._システム設定の保存と復元" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.15.3._システム設定の保存と復元" localSheetId="1">#REF!</definedName>
     <definedName name="_6.15.3._システム設定の保存と復元">#REF!</definedName>
-    <definedName name="_6.15.4._不具合情報収集" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.15.4._不具合情報収集" localSheetId="1">#REF!</definedName>
     <definedName name="_6.15.4._不具合情報収集">#REF!</definedName>
-    <definedName name="_6.15.5._他装置との接続確認" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.15.5._他装置との接続確認" localSheetId="1">#REF!</definedName>
     <definedName name="_6.15.5._他装置との接続確認">#REF!</definedName>
-    <definedName name="_6.15.6._Pocket__id__Consoleへのシステム設定情報の転送" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.15.6._Pocket__id__Consoleへのシステム設定情報の転送" localSheetId="1">#REF!</definedName>
     <definedName name="_6.15.6._Pocket__id__Consoleへのシステム設定情報の転送">#REF!</definedName>
-    <definedName name="_6.15.7._マンモグラフィーへの対応" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.15.7._マンモグラフィーへの対応" localSheetId="1">#REF!</definedName>
     <definedName name="_6.15.7._マンモグラフィーへの対応">#REF!</definedName>
-    <definedName name="_6.16._PDA端末での画像収録の実施_Pocket_id_Console" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.16._PDA端末での画像収録の実施_Pocket_id_Console" localSheetId="1">#REF!</definedName>
     <definedName name="_6.16._PDA端末での画像収録の実施_Pocket_id_Console">#REF!</definedName>
-    <definedName name="_6.16.1._PDA端末の起動_終了" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.16.1._PDA端末の起動_終了" localSheetId="1">#REF!</definedName>
     <definedName name="_6.16.1._PDA端末の起動_終了">#REF!</definedName>
-    <definedName name="_6.16.2._PDA端末への検査の転送" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.16.2._PDA端末への検査の転送" localSheetId="1">#REF!</definedName>
     <definedName name="_6.16.2._PDA端末への検査の転送">#REF!</definedName>
-    <definedName name="_6.16.3._PDAでのバーコード読取" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.16.3._PDAでのバーコード読取" localSheetId="1">#REF!</definedName>
     <definedName name="_6.16.3._PDAでのバーコード読取">#REF!</definedName>
-    <definedName name="_6.16.4._PDAでの患者氏名の表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.16.4._PDAでの患者氏名の表示" localSheetId="1">#REF!</definedName>
     <definedName name="_6.16.4._PDAでの患者氏名の表示">#REF!</definedName>
-    <definedName name="_6.17._使用者認証対応" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.17._使用者認証対応" localSheetId="1">#REF!</definedName>
     <definedName name="_6.17._使用者認証対応">#REF!</definedName>
-    <definedName name="_6.18.1.1_キャリブモードでの機能制限" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.1.1_キャリブモードでの機能制限" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.1.1_キャリブモードでの機能制限">#REF!</definedName>
-    <definedName name="_6.18.1_キャリブモードへの遷移" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.1_キャリブモードへの遷移" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.1_キャリブモードへの遷移">#REF!</definedName>
-    <definedName name="_6.18.2.1_キャリブ準備状態通知" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.2.1_キャリブ準備状態通知" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.2.1_キャリブ準備状態通知">#REF!</definedName>
-    <definedName name="_6.18.2.2_キャリブの開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.2.2_キャリブの開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.2.2_キャリブの開始">#REF!</definedName>
-    <definedName name="_6.18.2.3_キャリブ処理状態での進捗状況通知" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.2.3_キャリブ処理状態での進捗状況通知" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.2.3_キャリブ処理状態での進捗状況通知">#REF!</definedName>
-    <definedName name="_6.18.2.4_キャリブの停止" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.2.4_キャリブの停止" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.2.4_キャリブの停止">#REF!</definedName>
-    <definedName name="_6.18.2.5_キャリブの完了と結果表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.2.5_キャリブの完了と結果表示" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.2.5_キャリブの完了と結果表示">#REF!</definedName>
-    <definedName name="_6.18.2.6_エラーのユーザ通知" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.2.6_エラーのユーザ通知" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.2.6_エラーのユーザ通知">#REF!</definedName>
-    <definedName name="_6.18.2_キャリブ機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.2_キャリブ機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.2_キャリブ機能">#REF!</definedName>
-    <definedName name="_6.18.3_ルーチンモードへの遷移" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.3_ルーチンモードへの遷移" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.3_ルーチンモードへの遷移">#REF!</definedName>
-    <definedName name="_6.18.4_キャリブ実施履歴のファイル保存" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.4_キャリブ実施履歴のファイル保存" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.4_キャリブ実施履歴のファイル保存">#REF!</definedName>
-    <definedName name="_6.18.6_システム構成に従っての操作フロー変更" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18.6_システム構成に従っての操作フロー変更" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18.6_システム構成に従っての操作フロー変更">#REF!</definedName>
-    <definedName name="_6.18_DR撮影装置の較正_キャリブレーション" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.18_DR撮影装置の較正_キャリブレーション" localSheetId="1">#REF!</definedName>
     <definedName name="_6.18_DR撮影装置の較正_キャリブレーション">#REF!</definedName>
-    <definedName name="_6.2.__検査の登録" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.__検査の登録" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.__検査の登録">#REF!</definedName>
-    <definedName name="_6.2.1.__患者情報の設定" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.1.__患者情報の設定" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.1.__患者情報の設定">#REF!</definedName>
-    <definedName name="_6.2.10.__検査のリスト管理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.10.__検査のリスト管理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.10.__検査のリスト管理">#REF!</definedName>
-    <definedName name="_6.2.2.__オーダ情報の設定" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.2.__オーダ情報の設定" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.2.__オーダ情報の設定">#REF!</definedName>
-    <definedName name="_6.2.3.__患者情報のRISへの検索と取得" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.3.__患者情報のRISへの検索と取得" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.3.__患者情報のRISへの検索と取得">#REF!</definedName>
-    <definedName name="_6.2.4._三洋レセコン接続I_Fでのレセコンへの患者情報の検索と取得" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.4._三洋レセコン接続I_Fでのレセコンへの患者情報の検索と取得" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.4._三洋レセコン接続I_Fでのレセコンへの患者情報の検索と取得">#REF!</definedName>
-    <definedName name="_6.2.5._東芝レセコンI_F接続でのレセコンからの患者情報の取得" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.5._東芝レセコンI_F接続でのレセコンからの患者情報の取得" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.5._東芝レセコンI_F接続でのレセコンからの患者情報の取得">#REF!</definedName>
-    <definedName name="_6.2.6._富士通レセコンからのオーダ情報の取得と検査の登録" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.6._富士通レセコンからのオーダ情報の取得と検査の登録" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.6._富士通レセコンからのオーダ情報の取得と検査の登録">#REF!</definedName>
-    <definedName name="_6.2.7.__撮影メニュー" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.7.__撮影メニュー" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.7.__撮影メニュー">#REF!</definedName>
-    <definedName name="_6.2.8.__検査の予約" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.8.__検査の予約" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.8.__検査の予約">#REF!</definedName>
-    <definedName name="_6.2.9._システムのモダリティ" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.2.9._システムのモダリティ" localSheetId="1">#REF!</definedName>
     <definedName name="_6.2.9._システムのモダリティ">#REF!</definedName>
-    <definedName name="_6.3.__画像収録の開始_検査の開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.__画像収録の開始_検査の開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.__画像収録の開始_検査の開始">#REF!</definedName>
-    <definedName name="_6.3.1.__患者情報_オーダ情報_撮影メニュー設定後の画像収録開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.1.__患者情報_オーダ情報_撮影メニュー設定後の画像収録開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.1.__患者情報_オーダ情報_撮影メニュー設定後の画像収録開始">#REF!</definedName>
-    <definedName name="_6.3.10._FCR_簡易オーダリングI_F接続レセコンからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.10._FCR_簡易オーダリングI_F接続レセコンからの検査情報の取得と画像収録開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.10._FCR_簡易オーダリングI_F接続レセコンからの検査情報の取得と画像収録開始">#REF!</definedName>
-    <definedName name="_6.3.2.__登録済み検査選択による画像収録開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.2.__登録済み検査選択による画像収録開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.2.__登録済み検査選択による画像収録開始">#REF!</definedName>
-    <definedName name="_6.3.3.__一時保留した検査の選択による画像収録開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.3.__一時保留した検査の選択による画像収録開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.3.__一時保留した検査の選択による画像収録開始">#REF!</definedName>
-    <definedName name="_6.3.4.__RISからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.4.__RISからの検査情報の取得と画像収録開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.4.__RISからの検査情報の取得と画像収録開始">#REF!</definedName>
-    <definedName name="_6.3.5.__自動モードによる画像収録の開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.5.__自動モードによる画像収録の開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.5.__自動モードによる画像収録の開始">#REF!</definedName>
-    <definedName name="_6.3.6.__画像収録開始時の情報設定" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.6.__画像収録開始時の情報設定" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.6.__画像収録開始時の情報設定">#REF!</definedName>
-    <definedName name="_6.3.7._F_RISからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.7._F_RISからの検査情報の取得と画像収録開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.7._F_RISからの検査情報の取得と画像収録開始">#REF!</definedName>
-    <definedName name="_6.3.8._シリアル接続RISからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.8._シリアル接続RISからの検査情報の取得と画像収録開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.8._シリアル接続RISからの検査情報の取得と画像収録開始">#REF!</definedName>
-    <definedName name="_6.3.9._東芝RISからの検査情報の取得と画像収録開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.3.9._東芝RISからの検査情報の取得と画像収録開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.3.9._東芝RISからの検査情報の取得と画像収録開始">#REF!</definedName>
-    <definedName name="_6.4.__画像収録の実施_検査の実施" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.__画像収録の実施_検査の実施" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.__画像収録の実施_検査の実施">#REF!</definedName>
-    <definedName name="_6.4.1.__実施する検査情報の表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.1.__実施する検査情報の表示" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.1.__実施する検査情報の表示">#REF!</definedName>
-    <definedName name="_6.4.10.__救急モード" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.10.__救急モード" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.10.__救急モード">#REF!</definedName>
-    <definedName name="_6.4.10.1_救急モードのユーザ通知" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.10.1_救急モードのユーザ通知" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.10.1_救急モードのユーザ通知">#REF!</definedName>
-    <definedName name="_6.4.10.2_救急モードでの操作制御" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.10.2_救急モードでの操作制御" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.10.2_救急モードでの操作制御">#REF!</definedName>
-    <definedName name="_6.4.10.3_曝射制御" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.10.3_曝射制御" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.10.3_曝射制御">#REF!</definedName>
-    <definedName name="_6.4.10.4_キャリブ制御" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.10.4_キャリブ制御" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.10.4_キャリブ制御">#REF!</definedName>
-    <definedName name="_6.4.11.__断層撮影【TBD】" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.11.__断層撮影【TBD】" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.11.__断層撮影【TBD】">#REF!</definedName>
-    <definedName name="_6.4.2.__撮影メニューの編集" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.2.__撮影メニューの編集" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.2.__撮影メニューの編集">#REF!</definedName>
-    <definedName name="_6.4.3.__撮影台の制御" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.3.__撮影台の制御" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.3.__撮影台の制御">#REF!</definedName>
-    <definedName name="_6.4.4.__撮影メニューと画像の関連付け" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.4.__撮影メニューと画像の関連付け" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.4.__撮影メニューと画像の関連付け">#REF!</definedName>
-    <definedName name="_6.4.5.__画像受信時の処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.5.__画像受信時の処理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.5.__画像受信時の処理">#REF!</definedName>
-    <definedName name="_6.4.6.__画像の表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.6.__画像の表示" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.6.__画像の表示">#REF!</definedName>
-    <definedName name="_6.4.7.__画像の調整" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.7.__画像の調整" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.7.__画像の調整">#REF!</definedName>
-    <definedName name="_6.4.8.__画像の出力" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.8.__画像の出力" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.8.__画像の出力">#REF!</definedName>
-    <definedName name="_6.4.9.__画像収録の終了" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.4.9.__画像収録の終了" localSheetId="1">#REF!</definedName>
     <definedName name="_6.4.9.__画像収録の終了">#REF!</definedName>
-    <definedName name="_6.5.__リスト表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.__リスト表示" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.__リスト表示">#REF!</definedName>
-    <definedName name="_6.5.1.__リスト表示項目" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.1.__リスト表示項目" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.1.__リスト表示項目">#REF!</definedName>
-    <definedName name="_6.5.10._表示件数の表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.10._表示件数の表示" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.10._表示件数の表示">#REF!</definedName>
-    <definedName name="_6.5.11._フィルタリング" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.11._フィルタリング" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.11._フィルタリング">#REF!</definedName>
-    <definedName name="_6.5.12.__リスト表示機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.12.__リスト表示機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.12.__リスト表示機能">#REF!</definedName>
-    <definedName name="_6.5.13.__画像の検査間移動" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.13.__画像の検査間移動" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.13.__画像の検査間移動">#REF!</definedName>
-    <definedName name="_6.5.14.__画像確認の開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.14.__画像確認の開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.14.__画像確認の開始">#REF!</definedName>
-    <definedName name="_6.5.15.__検査の終了" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.15.__検査の終了" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.15.__検査の終了">#REF!</definedName>
-    <definedName name="_6.5.16.__検査の削除" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.16.__検査の削除" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.16.__検査の削除">#REF!</definedName>
-    <definedName name="_6.5.17.__ワークリスト" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.17.__ワークリスト" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.17.__ワークリスト">#REF!</definedName>
-    <definedName name="_6.5.18.__検査情報共有_DRCSL_V1V2制限_検査情報共有機能の設定を禁止" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.18.__検査情報共有_DRCSL_V1V2制限_検査情報共有機能の設定を禁止" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.18.__検査情報共有_DRCSL_V1V2制限_検査情報共有機能の設定を禁止">#REF!</definedName>
-    <definedName name="_6.5.19._画像出力" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.19._画像出力" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.19._画像出力">#REF!</definedName>
-    <definedName name="_6.5.2.__リスト表示のカスタマイズ" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.2.__リスト表示のカスタマイズ" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.2.__リスト表示のカスタマイズ">#REF!</definedName>
-    <definedName name="_6.5.3.__表示項目のカスタマイズ" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.3.__表示項目のカスタマイズ" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.3.__表示項目のカスタマイズ">#REF!</definedName>
-    <definedName name="_6.5.4.__検索機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.4.__検索機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.4.__検索機能">#REF!</definedName>
-    <definedName name="_6.5.5.__ソート機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.5.__ソート機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.5.__ソート機能">#REF!</definedName>
-    <definedName name="_6.5.6.__検査の選択と実行" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.6.__検査の選択と実行" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.6.__検査の選択と実行">#REF!</definedName>
-    <definedName name="_6.5.7.__検査削除" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.7.__検査削除" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.7.__検査削除">#REF!</definedName>
-    <definedName name="_6.5.8.__再表示機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.8.__再表示機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.8.__再表示機能">#REF!</definedName>
-    <definedName name="_6.5.9.__スクロール機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.5.9.__スクロール機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.5.9.__スクロール機能">#REF!</definedName>
-    <definedName name="_6.6._画像の確認_調整" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.6._画像の確認_調整" localSheetId="1">#REF!</definedName>
     <definedName name="_6.6._画像の確認_調整">#REF!</definedName>
-    <definedName name="_6.6.1._画像確認の開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.6.1._画像確認の開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.6.1._画像確認の開始">#REF!</definedName>
-    <definedName name="_6.6.2._画像の確認_調整" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.6.2._画像の確認_調整" localSheetId="1">#REF!</definedName>
     <definedName name="_6.6.2._画像の確認_調整">#REF!</definedName>
-    <definedName name="_6.6.3._画像の調整" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.6.3._画像の調整" localSheetId="1">#REF!</definedName>
     <definedName name="_6.6.3._画像の調整">#REF!</definedName>
-    <definedName name="_6.6.4._特殊プリント" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.6.4._特殊プリント" localSheetId="1">#REF!</definedName>
     <definedName name="_6.6.4._特殊プリント">#REF!</definedName>
-    <definedName name="_6.7._検査実施中での画像の確認_調整" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.7._検査実施中での画像の確認_調整" localSheetId="1">#REF!</definedName>
     <definedName name="_6.7._検査実施中での画像の確認_調整">#REF!</definedName>
-    <definedName name="_6.7.1._画像の確認_調整" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.7.1._画像の確認_調整" localSheetId="1">#REF!</definedName>
     <definedName name="_6.7.1._画像の確認_調整">#REF!</definedName>
-    <definedName name="_6.7.2._手動での照射野外黒化処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.7.2._手動での照射野外黒化処理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.7.2._手動での照射野外黒化処理">#REF!</definedName>
-    <definedName name="_6.7.3._長尺画像のつなぎ合わせ位置の調整" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.7.3._長尺画像のつなぎ合わせ位置の調整" localSheetId="1">#REF!</definedName>
     <definedName name="_6.7.3._長尺画像のつなぎ合わせ位置の調整">#REF!</definedName>
-    <definedName name="_6.8._一括画像確認" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.8._一括画像確認" localSheetId="1">#REF!</definedName>
     <definedName name="_6.8._一括画像確認">#REF!</definedName>
-    <definedName name="_6.8.1._一括画像確認の開始" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.8.1._一括画像確認の開始" localSheetId="1">#REF!</definedName>
     <definedName name="_6.8.1._一括画像確認の開始">#REF!</definedName>
-    <definedName name="_6.8.2._患者情報_オーダ情報_撮影メニューの表示" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.8.2._患者情報_オーダ情報_撮影メニューの表示" localSheetId="1">#REF!</definedName>
     <definedName name="_6.8.2._患者情報_オーダ情報_撮影メニューの表示">#REF!</definedName>
-    <definedName name="_6.8.2_キャリブ機能" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.8.2_キャリブ機能" localSheetId="1">#REF!</definedName>
     <definedName name="_6.8.2_キャリブ機能">#REF!</definedName>
-    <definedName name="_6.8.3._患者情報_オーダ情報_撮影メニューの修正及び画像の確認と調整" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.8.3._患者情報_オーダ情報_撮影メニューの修正及び画像の確認と調整" localSheetId="1">#REF!</definedName>
     <definedName name="_6.8.3._患者情報_オーダ情報_撮影メニューの修正及び画像の確認と調整">#REF!</definedName>
-    <definedName name="_6.8.4._画像の出力" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.8.4._画像の出力" localSheetId="1">#REF!</definedName>
     <definedName name="_6.8.4._画像の出力">#REF!</definedName>
-    <definedName name="_6.8.5._“撮影失敗画像_のマーキング" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.8.5._“撮影失敗画像_のマーキング" localSheetId="1">#REF!</definedName>
     <definedName name="_6.8.5._“撮影失敗画像_のマーキング">#REF!</definedName>
-    <definedName name="_6.8.6._再画像収録" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.8.6._再画像収録" localSheetId="1">#REF!</definedName>
     <definedName name="_6.8.6._再画像収録">#REF!</definedName>
-    <definedName name="_6.9._ハードコピー装置への出力_イメージャーからのフイルムプリント" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.9._ハードコピー装置への出力_イメージャーからのフイルムプリント" localSheetId="1">#REF!</definedName>
     <definedName name="_6.9._ハードコピー装置への出力_イメージャーからのフイルムプリント">#REF!</definedName>
-    <definedName name="_6.9.1._接続装置と接続装置毎の処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.9.1._接続装置と接続装置毎の処理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.9.1._接続装置と接続装置毎の処理">#REF!</definedName>
-    <definedName name="_6.9.2._画像処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.9.2._画像処理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.9.2._画像処理">#REF!</definedName>
-    <definedName name="_6.9.3._フォーマット処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.9.3._フォーマット処理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.9.3._フォーマット処理">#REF!</definedName>
-    <definedName name="_6.9.4._出力処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.9.4._出力処理" localSheetId="1">#REF!</definedName>
     <definedName name="_6.9.4._出力処理">#REF!</definedName>
-    <definedName name="_6.9.5._出力フォーマット" localSheetId="5">#REF!</definedName>
+    <definedName name="_6.9.5._出力フォーマット" localSheetId="1">#REF!</definedName>
     <definedName name="_6.9.5._出力フォーマット">#REF!</definedName>
-    <definedName name="_7._性能_レスポンス" localSheetId="5">#REF!</definedName>
+    <definedName name="_7._性能_レスポンス" localSheetId="1">#REF!</definedName>
     <definedName name="_7._性能_レスポンス">#REF!</definedName>
-    <definedName name="_7.1._読取機から画像を受け取って自動的に出力" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.1._読取機から画像を受け取って自動的に出力" localSheetId="1">#REF!</definedName>
     <definedName name="_7.1._読取機から画像を受け取って自動的に出力">#REF!</definedName>
-    <definedName name="_7.1.1._基本性能" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.1.1._基本性能" localSheetId="1">#REF!</definedName>
     <definedName name="_7.1.1._基本性能">#REF!</definedName>
-    <definedName name="_7.1.2._CR_IR346RU接続_⇒削除" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.1.2._CR_IR346RU接続_⇒削除" localSheetId="1">#REF!</definedName>
     <definedName name="_7.1.2._CR_IR346RU接続_⇒削除">#REF!</definedName>
-    <definedName name="_7.1.3._CR_IR341接続⇒削除" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.1.3._CR_IR341接続⇒削除" localSheetId="1">#REF!</definedName>
     <definedName name="_7.1.3._CR_IR341接続⇒削除">#REF!</definedName>
-    <definedName name="_7.1.4._CR_IR362接続" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.1.4._CR_IR362接続" localSheetId="1">#REF!</definedName>
     <definedName name="_7.1.4._CR_IR362接続">#REF!</definedName>
-    <definedName name="_7.1.5._CR_IR363接続" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.1.5._CR_IR363接続" localSheetId="1">#REF!</definedName>
     <definedName name="_7.1.5._CR_IR363接続">#REF!</definedName>
-    <definedName name="_7.1.6._CR_IR364接続" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.1.6._CR_IR364接続" localSheetId="1">#REF!</definedName>
     <definedName name="_7.1.6._CR_IR364接続">#REF!</definedName>
-    <definedName name="_7.1.7._CR_IR356接続" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.1.7._CR_IR356接続" localSheetId="1">#REF!</definedName>
     <definedName name="_7.1.7._CR_IR356接続">#REF!</definedName>
-    <definedName name="_7.1.8._DR立位タイプ読取機接続" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.1.8._DR立位タイプ読取機接続" localSheetId="1">#REF!</definedName>
     <definedName name="_7.1.8._DR立位タイプ読取機接続">#REF!</definedName>
-    <definedName name="_7.2._起動時間⇒削除" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.2._起動時間⇒削除" localSheetId="1">#REF!</definedName>
     <definedName name="_7.2._起動時間⇒削除">#REF!</definedName>
-    <definedName name="_7.3._終了時間⇒削除" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.3._終了時間⇒削除" localSheetId="1">#REF!</definedName>
     <definedName name="_7.3._終了時間⇒削除">#REF!</definedName>
-    <definedName name="_7.4._撮影メニューの展開時間" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.4._撮影メニューの展開時間" localSheetId="1">#REF!</definedName>
     <definedName name="_7.4._撮影メニューの展開時間">#REF!</definedName>
-    <definedName name="_7.5._画像確認機能での画像表示時間" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.5._画像確認機能での画像表示時間" localSheetId="1">#REF!</definedName>
     <definedName name="_7.5._画像確認機能での画像表示時間">#REF!</definedName>
-    <definedName name="_7.6._精細画像表示での画像表示時間" localSheetId="5">#REF!</definedName>
+    <definedName name="_7.6._精細画像表示での画像表示時間" localSheetId="1">#REF!</definedName>
     <definedName name="_7.6._精細画像表示での画像表示時間">#REF!</definedName>
-    <definedName name="_8._インストール" localSheetId="5">#REF!</definedName>
+    <definedName name="_8._インストール" localSheetId="1">#REF!</definedName>
     <definedName name="_8._インストール">#REF!</definedName>
-    <definedName name="_8.1._初期インストール" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.1._初期インストール" localSheetId="1">#REF!</definedName>
     <definedName name="_8.1._初期インストール">#REF!</definedName>
-    <definedName name="_8.1.1._環境の判別とシステムの設定" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.1.1._環境の判別とシステムの設定" localSheetId="1">#REF!</definedName>
     <definedName name="_8.1.1._環境の判別とシステムの設定">#REF!</definedName>
-    <definedName name="_8.1.2._自動ログイン設定" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.1.2._自動ログイン設定" localSheetId="1">#REF!</definedName>
     <definedName name="_8.1.2._自動ログイン設定">#REF!</definedName>
-    <definedName name="_8.1.3._ファイルのインストール" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.1.3._ファイルのインストール" localSheetId="1">#REF!</definedName>
     <definedName name="_8.1.3._ファイルのインストール">#REF!</definedName>
-    <definedName name="_8.1.4._アプリケーションソフトウェアの起動設定" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.1.4._アプリケーションソフトウェアの起動設定" localSheetId="1">#REF!</definedName>
     <definedName name="_8.1.4._アプリケーションソフトウェアの起動設定">#REF!</definedName>
-    <definedName name="_8.2._バージョンアップインストール" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.2._バージョンアップインストール" localSheetId="1">#REF!</definedName>
     <definedName name="_8.2._バージョンアップインストール">#REF!</definedName>
-    <definedName name="_8.3._オプション機能の追加" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.3._オプション機能の追加" localSheetId="1">#REF!</definedName>
     <definedName name="_8.3._オプション機能の追加">#REF!</definedName>
-    <definedName name="_8.4._ドライバ関連インストール" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.4._ドライバ関連インストール" localSheetId="1">#REF!</definedName>
     <definedName name="_8.4._ドライバ関連インストール">#REF!</definedName>
-    <definedName name="_8.4.1._PEI_PSI基板ドライバ" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.4.1._PEI_PSI基板ドライバ" localSheetId="1">#REF!</definedName>
     <definedName name="_8.4.1._PEI_PSI基板ドライバ">#REF!</definedName>
-    <definedName name="_8.4.2._USB機器用ドライバ" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.4.2._USB機器用ドライバ" localSheetId="1">#REF!</definedName>
     <definedName name="_8.4.2._USB機器用ドライバ">#REF!</definedName>
-    <definedName name="_8.5._富士標準パラメータ" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.5._富士標準パラメータ" localSheetId="1">#REF!</definedName>
     <definedName name="_8.5._富士標準パラメータ">#REF!</definedName>
-    <definedName name="_8.5.1._パラメータファイルのインストール" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.5.1._パラメータファイルのインストール" localSheetId="1">#REF!</definedName>
     <definedName name="_8.5.1._パラメータファイルのインストール">#REF!</definedName>
-    <definedName name="_8.5.2._各国語別使用ファイル" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.5.2._各国語別使用ファイル" localSheetId="1">#REF!</definedName>
     <definedName name="_8.5.2._各国語別使用ファイル">#REF!</definedName>
-    <definedName name="_8.5.3._各パラメータのバリエーション" localSheetId="5">#REF!</definedName>
+    <definedName name="_8.5.3._各パラメータのバリエーション" localSheetId="1">#REF!</definedName>
     <definedName name="_8.5.3._各パラメータのバリエーション">#REF!</definedName>
-    <definedName name="_9._エラー対象_エラー対処方法" localSheetId="5">#REF!</definedName>
+    <definedName name="_9._エラー対象_エラー対処方法" localSheetId="1">#REF!</definedName>
     <definedName name="_9._エラー対象_エラー対処方法">#REF!</definedName>
-    <definedName name="_9.1._エラー処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_9.1._エラー処理" localSheetId="1">#REF!</definedName>
     <definedName name="_9.1._エラー処理">#REF!</definedName>
-    <definedName name="_9.1.1._ログ保存方法" localSheetId="5">#REF!</definedName>
+    <definedName name="_9.1.1._ログ保存方法" localSheetId="1">#REF!</definedName>
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
-    <definedName name="_9.1.2._ジャーナル処理" localSheetId="5">#REF!</definedName>
+    <definedName name="_9.1.2._ジャーナル処理" localSheetId="1">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
-    <definedName name="_A1" localSheetId="5">'[1]諸定義&amp;保守'!#REF!</definedName>
+    <definedName name="_A1" localSheetId="1">'[1]諸定義&amp;保守'!#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Viewpoint_Function (2)'!$J$2:$J$58</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$20</definedName>
-    <definedName name="_Toc350025729" localSheetId="5">'Viewpoint_Function (2)'!$E$21</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$41</definedName>
-    <definedName name="_Toc350025731" localSheetId="5">'Viewpoint_Function (2)'!$E$42</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$66</definedName>
-    <definedName name="_Toc350025733" localSheetId="5">'Viewpoint_Function (2)'!$E$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Viewpoint funtion'!$J$2:$J$58</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">'Viewpoint funtion'!$E$21</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">'Viewpoint funtion'!$E$42</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">'Viewpoint funtion'!$E$67</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="2">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="a" localSheetId="5">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="Ａ">[2]運用・保守サーバ!$G$50</definedName>
-    <definedName name="ACTION" localSheetId="5">#REF!</definedName>
+    <definedName name="ACTION" localSheetId="1">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
-    <definedName name="ＢＯ" localSheetId="5">#REF!</definedName>
+    <definedName name="ＢＯ" localSheetId="1">#REF!</definedName>
     <definedName name="ＢＯ">#REF!</definedName>
-    <definedName name="ＢＯ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="ＢＯ保守" localSheetId="1">#REF!</definedName>
     <definedName name="ＢＯ保守">#REF!</definedName>
-    <definedName name="data21" localSheetId="5">[3]QA１０２５!#REF!</definedName>
+    <definedName name="data21" localSheetId="1">[3]QA１０２５!#REF!</definedName>
     <definedName name="data21">[3]QA１０２５!#REF!</definedName>
-    <definedName name="data31" localSheetId="5">[4]QA0037!#REF!</definedName>
+    <definedName name="data31" localSheetId="1">[4]QA0037!#REF!</definedName>
     <definedName name="data31">[4]QA0037!#REF!</definedName>
-    <definedName name="data32" localSheetId="5">[4]QA0037!#REF!</definedName>
+    <definedName name="data32" localSheetId="1">[4]QA0037!#REF!</definedName>
     <definedName name="data32">[4]QA0037!#REF!</definedName>
-    <definedName name="data33" localSheetId="5">[4]QA0037!#REF!</definedName>
+    <definedName name="data33" localSheetId="1">[4]QA0037!#REF!</definedName>
     <definedName name="data33">[4]QA0037!#REF!</definedName>
-    <definedName name="data36" localSheetId="5">[3]QA１０２５!#REF!</definedName>
+    <definedName name="data36" localSheetId="1">[3]QA１０２５!#REF!</definedName>
     <definedName name="data36">[3]QA１０２５!#REF!</definedName>
     <definedName name="Effectiveness">Characteristics!$G$3:$G$4</definedName>
     <definedName name="Flexibility">Characteristics!$I$3:$I$4</definedName>
@@ -562,38 +556,35 @@
     <definedName name="kkkkk" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="kkkkk" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="kkkkk" localSheetId="1" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
-    <definedName name="kkkkk" localSheetId="5" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="kkkkk" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="l">[5]管理シート!$A$5:$A$30</definedName>
     <definedName name="Maintenance">Characteristics!$H$3:$H$5</definedName>
     <definedName name="Member">[6]Master_Schedule!$GW$131:$GW$140</definedName>
-    <definedName name="PAGE00" localSheetId="5">[7]!PAGE00</definedName>
+    <definedName name="PAGE00" localSheetId="1">[7]!PAGE00</definedName>
     <definedName name="PAGE00">[7]!PAGE00</definedName>
-    <definedName name="PBNEC" localSheetId="5">#REF!</definedName>
+    <definedName name="PBNEC" localSheetId="1">#REF!</definedName>
     <definedName name="PBNEC">#REF!</definedName>
-    <definedName name="PBNEC2" localSheetId="5">#REF!</definedName>
+    <definedName name="PBNEC2" localSheetId="1">#REF!</definedName>
     <definedName name="PBNEC2">#REF!</definedName>
-    <definedName name="PBNEC2保守" localSheetId="5">#REF!</definedName>
+    <definedName name="PBNEC2保守" localSheetId="1">#REF!</definedName>
     <definedName name="PBNEC2保守">#REF!</definedName>
-    <definedName name="PBNEC保守" localSheetId="5">#REF!</definedName>
+    <definedName name="PBNEC保守" localSheetId="1">#REF!</definedName>
     <definedName name="PBNEC保守">#REF!</definedName>
-    <definedName name="ＰＤ" localSheetId="5">#REF!</definedName>
+    <definedName name="ＰＤ" localSheetId="1">#REF!</definedName>
     <definedName name="ＰＤ">#REF!</definedName>
-    <definedName name="ＰＤ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="ＰＤ保守" localSheetId="1">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
-    <definedName name="ＰＲ" localSheetId="5">#REF!</definedName>
+    <definedName name="ＰＲ" localSheetId="1">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Viewpoint_Function (2)'!$A$1:$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Viewpoint funtion'!$A$1:$L$19</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
-    <definedName name="ＰＲ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="ＰＲ保守" localSheetId="1">#REF!</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="q" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="1" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
-    <definedName name="q" localSheetId="5" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="Reliability">Characteristics!$E$3:$E$4</definedName>
     <definedName name="Requirement">Characteristics!$D$3:$D$6</definedName>
@@ -601,88 +592,84 @@
     <definedName name="s" localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="s" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="s" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="s" localSheetId="5" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="s" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="SEL" localSheetId="5">#REF!</definedName>
+    <definedName name="SEL" localSheetId="1">#REF!</definedName>
     <definedName name="SEL">#REF!</definedName>
-    <definedName name="SQLNET" localSheetId="5">#REF!</definedName>
+    <definedName name="SQLNET" localSheetId="1">#REF!</definedName>
     <definedName name="SQLNET">#REF!</definedName>
-    <definedName name="SQLNET保守" localSheetId="5">#REF!</definedName>
+    <definedName name="SQLNET保守" localSheetId="1">#REF!</definedName>
     <definedName name="SQLNET保守">#REF!</definedName>
     <definedName name="ss" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="ss" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="ss" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="ss" localSheetId="1" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
-    <definedName name="ss" localSheetId="5" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="ss" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
-    <definedName name="STEP" localSheetId="5">#REF!</definedName>
+    <definedName name="STEP" localSheetId="1">#REF!</definedName>
     <definedName name="STEP">#REF!</definedName>
-    <definedName name="SYSTEMSCOPE" localSheetId="5">#REF!</definedName>
+    <definedName name="SYSTEMSCOPE" localSheetId="1">#REF!</definedName>
     <definedName name="SYSTEMSCOPE">#REF!</definedName>
-    <definedName name="SYSTEMSCOPE保守" localSheetId="5">#REF!</definedName>
+    <definedName name="SYSTEMSCOPE保守" localSheetId="1">#REF!</definedName>
     <definedName name="SYSTEMSCOPE保守">#REF!</definedName>
-    <definedName name="TableNo" localSheetId="5">#REF!</definedName>
+    <definedName name="TableNo" localSheetId="1">#REF!</definedName>
     <definedName name="TableNo">#REF!</definedName>
-    <definedName name="TUXALL" localSheetId="5">#REF!</definedName>
+    <definedName name="TUXALL" localSheetId="1">#REF!</definedName>
     <definedName name="TUXALL">#REF!</definedName>
-    <definedName name="TUXALL保守" localSheetId="5">#REF!</definedName>
+    <definedName name="TUXALL保守" localSheetId="1">#REF!</definedName>
     <definedName name="TUXALL保守">#REF!</definedName>
-    <definedName name="TUXEDO" localSheetId="5">#REF!</definedName>
+    <definedName name="TUXEDO" localSheetId="1">#REF!</definedName>
     <definedName name="TUXEDO">#REF!</definedName>
-    <definedName name="TUXEDO保守" localSheetId="5">#REF!</definedName>
+    <definedName name="TUXEDO保守" localSheetId="1">#REF!</definedName>
     <definedName name="TUXEDO保守">#REF!</definedName>
     <definedName name="Usability">Characteristics!$F$3:$F$5</definedName>
     <definedName name="usernameTF">"usernameTF"</definedName>
-    <definedName name="ＷＥＢサーバＨＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="ＷＥＢサーバＨＷ" localSheetId="1">#REF!</definedName>
     <definedName name="ＷＥＢサーバＨＷ">#REF!</definedName>
-    <definedName name="ＷＥＢサーバＨＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="ＷＥＢサーバＨＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="ＷＥＢサーバＨＷ保守">#REF!</definedName>
-    <definedName name="ＷＥＢサーバＳＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="ＷＥＢサーバＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="ＷＥＢサーバＳＷ">#REF!</definedName>
     <definedName name="wrn.すべて印刷." localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.すべて印刷." localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.すべて印刷." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.すべて印刷." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="wrn.すべて印刷." localSheetId="5" hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.すべて印刷." hidden="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="wrn.ｿｰｽ1." localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="wrn.ｿｰｽ1." localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="wrn.ｿｰｽ1." localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="wrn.ｿｰｽ1." localSheetId="1" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
-    <definedName name="wrn.ｿｰｽ1." localSheetId="5" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="wrn.ｿｰｽ1." hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
-    <definedName name="インプラント有無" localSheetId="5">#REF!</definedName>
+    <definedName name="インプラント有無" localSheetId="1">#REF!</definedName>
     <definedName name="インプラント有無">#REF!</definedName>
-    <definedName name="エンドユーザ名" localSheetId="5">#REF!</definedName>
+    <definedName name="エンドユーザ名" localSheetId="1">#REF!</definedName>
     <definedName name="エンドユーザ名">#REF!</definedName>
-    <definedName name="ゲートウェイサーバＨＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="ゲートウェイサーバＨＷ" localSheetId="1">#REF!</definedName>
     <definedName name="ゲートウェイサーバＨＷ">#REF!</definedName>
-    <definedName name="ゲートウェイサーバＨＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="ゲートウェイサーバＨＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="ゲートウェイサーバＨＷ保守">#REF!</definedName>
-    <definedName name="ゲートウェイサーバＳＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="ゲートウェイサーバＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="ゲートウェイサーバＳＷ">#REF!</definedName>
-    <definedName name="ｽﾃｰﾀｽ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｽﾃｰﾀｽ" localSheetId="1">#REF!</definedName>
     <definedName name="ｽﾃｰﾀｽ">#REF!</definedName>
-    <definedName name="バーコード読み取りによる検査選択と作業開始" localSheetId="5">#REF!</definedName>
+    <definedName name="バーコード読み取りによる検査選択と作業開始" localSheetId="1">#REF!</definedName>
     <definedName name="バーコード読み取りによる検査選択と作業開始">#REF!</definedName>
-    <definedName name="ファックス番号" localSheetId="5">#REF!</definedName>
+    <definedName name="ファックス番号" localSheetId="1">#REF!</definedName>
     <definedName name="ファックス番号">#REF!</definedName>
     <definedName name="フォーマット">[5]管理シート!$A$5:$A$30</definedName>
-    <definedName name="ﾚﾋﾞｭｰ密度基準値" localSheetId="5">#REF!</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度基準値" localSheetId="1">#REF!</definedName>
     <definedName name="ﾚﾋﾞｭｰ密度基準値">#REF!</definedName>
-    <definedName name="ﾚﾋﾞｭｰ密度目標値" localSheetId="5">#REF!</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度目標値" localSheetId="1">#REF!</definedName>
     <definedName name="ﾚﾋﾞｭｰ密度目標値">#REF!</definedName>
-    <definedName name="事業部名" localSheetId="5">#REF!</definedName>
+    <definedName name="事業部名" localSheetId="1">#REF!</definedName>
     <definedName name="事業部名">#REF!</definedName>
-    <definedName name="件名" localSheetId="5">#REF!</definedName>
+    <definedName name="件名" localSheetId="1">#REF!</definedName>
     <definedName name="件名">#REF!</definedName>
-    <definedName name="伊賀SV台数" localSheetId="5">#REF!</definedName>
+    <definedName name="伊賀SV台数" localSheetId="1">#REF!</definedName>
     <definedName name="伊賀SV台数">#REF!</definedName>
-    <definedName name="会社名" localSheetId="5">#REF!</definedName>
+    <definedName name="会社名" localSheetId="1">#REF!</definedName>
     <definedName name="会社名">#REF!</definedName>
-    <definedName name="住所1" localSheetId="5">#REF!</definedName>
+    <definedName name="住所1" localSheetId="1">#REF!</definedName>
     <definedName name="住所1">#REF!</definedName>
-    <definedName name="住所2" localSheetId="5">#REF!</definedName>
+    <definedName name="住所2" localSheetId="1">#REF!</definedName>
     <definedName name="住所2">#REF!</definedName>
     <definedName name="作り込み原因">OFFSET([9]区分値!$BW$3,0,0,COUNTA([9]区分値!$BW$1:$BW$65536)-2,1)</definedName>
     <definedName name="使用性">Characteristics!$F$3:$F$5</definedName>
@@ -690,16 +677,16 @@
     <definedName name="信頼性">Characteristics!$E$3:$E$4</definedName>
     <definedName name="優先度">OFFSET([9]区分値!$BM$3,0,0,COUNTA([9]区分値!$BM$1:$BM$65536)-2,1)</definedName>
     <definedName name="処理種別">[10]Work!$E$3:$E$12</definedName>
-    <definedName name="出力済み検査の検査再開から出力まで" localSheetId="5">#REF!</definedName>
+    <definedName name="出力済み検査の検査再開から出力まで" localSheetId="1">#REF!</definedName>
     <definedName name="出力済み検査の検査再開から出力まで">#REF!</definedName>
-    <definedName name="出力済み検査の画像確認から再出力まで" localSheetId="5">#REF!</definedName>
+    <definedName name="出力済み検査の画像確認から再出力まで" localSheetId="1">#REF!</definedName>
     <definedName name="出力済み検査の画像確認から再出力まで">#REF!</definedName>
     <definedName name="効率性">Characteristics!$G$3:$G$4</definedName>
-    <definedName name="北勢SV台数" localSheetId="5">#REF!</definedName>
+    <definedName name="北勢SV台数" localSheetId="1">#REF!</definedName>
     <definedName name="北勢SV台数">#REF!</definedName>
-    <definedName name="南勢志摩SV台数" localSheetId="5">#REF!</definedName>
+    <definedName name="南勢志摩SV台数" localSheetId="1">#REF!</definedName>
     <definedName name="南勢志摩SV台数">#REF!</definedName>
-    <definedName name="単純Ｘ線撮影の作業ワークフローの提供" localSheetId="5">#REF!</definedName>
+    <definedName name="単純Ｘ線撮影の作業ワークフローの提供" localSheetId="1">#REF!</definedName>
     <definedName name="単純Ｘ線撮影の作業ワークフローの提供">#REF!</definedName>
     <definedName name="原因分類_EB">OFFSET([9]区分値!$AK$4,0,0,COUNTA([9]区分値!$AK$1:$AK$65536)-3,1)</definedName>
     <definedName name="原因分類_ED">OFFSET([9]区分値!$Y$4,0,0,COUNTA([9]区分値!$Y$1:$Y$65536)-3,1)</definedName>
@@ -711,133 +698,133 @@
     <definedName name="原因分類_RD">OFFSET([9]区分値!$W$4,0,0,COUNTA([9]区分値!$W$1:$W$65536)-3,1)</definedName>
     <definedName name="原因分類_ST">OFFSET([9]区分値!$AG$4,0,0,COUNTA([9]区分値!$AG$1:$AG$65536)-3,1)</definedName>
     <definedName name="原因工程">OFFSET([9]区分値!$BO$3,0,0,COUNTA([9]区分値!$BO$1:$BO$65536)-2,1)</definedName>
-    <definedName name="受注期間１" localSheetId="5">#REF!</definedName>
+    <definedName name="受注期間１" localSheetId="1">#REF!</definedName>
     <definedName name="受注期間１">#REF!</definedName>
-    <definedName name="受注期間２" localSheetId="5">#REF!</definedName>
+    <definedName name="受注期間２" localSheetId="1">#REF!</definedName>
     <definedName name="受注期間２">#REF!</definedName>
-    <definedName name="受注見込年月" localSheetId="5">#REF!</definedName>
+    <definedName name="受注見込年月" localSheetId="1">#REF!</definedName>
     <definedName name="受注見込年月">#REF!</definedName>
     <definedName name="品質副特性">Define!$C$6:$C$8,Define!$C$10,Define!$C$13:$C$14,Define!$C$17,Define!$C$19,Define!$C$21,Define!$C$23,Define!$C$24,Define!$C$27,Define!$C$29,Define!$C$30,Define!$C$33,Define!$C$36</definedName>
     <definedName name="品質特性" localSheetId="4">[11]Characteristics!$B$3:$B$8</definedName>
     <definedName name="品質特性">Characteristics!$B$3:$B$8</definedName>
-    <definedName name="在宅ＰＣ" localSheetId="5">#REF!</definedName>
+    <definedName name="在宅ＰＣ" localSheetId="1">#REF!</definedName>
     <definedName name="在宅ＰＣ">#REF!</definedName>
-    <definedName name="在宅ＰＣ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="在宅ＰＣ保守" localSheetId="1">#REF!</definedName>
     <definedName name="在宅ＰＣ保守">#REF!</definedName>
-    <definedName name="在宅ｻｰﾊﾞ" localSheetId="5">#REF!</definedName>
+    <definedName name="在宅ｻｰﾊﾞ" localSheetId="1">#REF!</definedName>
     <definedName name="在宅ｻｰﾊﾞ">#REF!</definedName>
-    <definedName name="在宅ｻｰﾊﾞＳＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="在宅ｻｰﾊﾞＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="在宅ｻｰﾊﾞＳＷ">#REF!</definedName>
-    <definedName name="在宅ｻｰﾊﾞ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="在宅ｻｰﾊﾞ保守" localSheetId="1">#REF!</definedName>
     <definedName name="在宅ｻｰﾊﾞ保守">#REF!</definedName>
-    <definedName name="基幹ＡＰサーバＨＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="基幹ＡＰサーバＨＷ" localSheetId="1">#REF!</definedName>
     <definedName name="基幹ＡＰサーバＨＷ">#REF!</definedName>
-    <definedName name="基幹ＡＰサーバＨＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="基幹ＡＰサーバＨＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="基幹ＡＰサーバＨＷ保守">#REF!</definedName>
-    <definedName name="基幹ＡＰサーバＳＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="基幹ＡＰサーバＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="基幹ＡＰサーバＳＷ">#REF!</definedName>
-    <definedName name="基幹ＤＢサーバＨＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="基幹ＤＢサーバＨＷ" localSheetId="1">#REF!</definedName>
     <definedName name="基幹ＤＢサーバＨＷ">#REF!</definedName>
-    <definedName name="基幹ＤＢサーバＨＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="基幹ＤＢサーバＨＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="基幹ＤＢサーバＨＷ保守">#REF!</definedName>
-    <definedName name="基幹ＤＢサーバＳＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="基幹ＤＢサーバＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="基幹ＤＢサーバＳＷ">#REF!</definedName>
-    <definedName name="基幹ＤＢサーバＳＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="基幹ＤＢサーバＳＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="基幹ＤＢサーバＳＷ保守">#REF!</definedName>
-    <definedName name="売上区分名" localSheetId="5">#REF!</definedName>
+    <definedName name="売上区分名" localSheetId="1">#REF!</definedName>
     <definedName name="売上区分名">#REF!</definedName>
-    <definedName name="売上区分小計" localSheetId="5">#REF!</definedName>
+    <definedName name="売上区分小計" localSheetId="1">#REF!</definedName>
     <definedName name="売上区分小計">#REF!</definedName>
-    <definedName name="売上詳細区分名" localSheetId="5">#REF!</definedName>
+    <definedName name="売上詳細区分名" localSheetId="1">#REF!</definedName>
     <definedName name="売上詳細区分名">#REF!</definedName>
     <definedName name="対処確認結果_再テスト">OFFSET([9]区分値!$CF$3:$CF$3,0,0,COUNTA([9]区分値!$CF$1:$CF$65536)-2,1)</definedName>
     <definedName name="対処要否">OFFSET([9]区分値!$BU$3,0,0,COUNTA([9]区分値!$BU$1:$BU$65536)-2,1)</definedName>
     <definedName name="工程区分">OFFSET([9]区分値!$BE$3,0,0,COUNTA([9]区分値!$BE$1:$BE$65536)-2,1)</definedName>
     <definedName name="影響範囲">OFFSET([9]区分値!$BR$3,0,0,COUNTA([9]区分値!$BR$1:$BR$65536)-2,1)</definedName>
-    <definedName name="得意先名" localSheetId="5">#REF!</definedName>
+    <definedName name="得意先名" localSheetId="1">#REF!</definedName>
     <definedName name="得意先名">#REF!</definedName>
-    <definedName name="情報系サーバＨＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="情報系サーバＨＷ" localSheetId="1">#REF!</definedName>
     <definedName name="情報系サーバＨＷ">#REF!</definedName>
-    <definedName name="情報系サーバＨＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="情報系サーバＨＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="情報系サーバＨＷ保守">#REF!</definedName>
-    <definedName name="情報系サーバＳＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="情報系サーバＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="情報系サーバＳＷ">#REF!</definedName>
-    <definedName name="情報系サーバＳＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="情報系サーバＳＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="情報系サーバＳＷ保守">#REF!</definedName>
-    <definedName name="指摘率基準値" localSheetId="5">#REF!</definedName>
+    <definedName name="指摘率基準値" localSheetId="1">#REF!</definedName>
     <definedName name="指摘率基準値">#REF!</definedName>
-    <definedName name="指摘率目標値" localSheetId="5">#REF!</definedName>
+    <definedName name="指摘率目標値" localSheetId="1">#REF!</definedName>
     <definedName name="指摘率目標値">#REF!</definedName>
-    <definedName name="提供金額" localSheetId="5">#REF!</definedName>
+    <definedName name="提供金額" localSheetId="1">#REF!</definedName>
     <definedName name="提供金額">#REF!</definedName>
-    <definedName name="支払条件" localSheetId="5">#REF!</definedName>
+    <definedName name="支払条件" localSheetId="1">#REF!</definedName>
     <definedName name="支払条件">#REF!</definedName>
     <definedName name="書式">[5]管理シート!$C$5:$C$30</definedName>
-    <definedName name="最大ﾚﾋﾞｭｰ密度" localSheetId="5">#REF!</definedName>
+    <definedName name="最大ﾚﾋﾞｭｰ密度" localSheetId="1">#REF!</definedName>
     <definedName name="最大ﾚﾋﾞｭｰ密度">#REF!</definedName>
-    <definedName name="最大指摘率" localSheetId="5">#REF!</definedName>
+    <definedName name="最大指摘率" localSheetId="1">#REF!</definedName>
     <definedName name="最大指摘率">#REF!</definedName>
-    <definedName name="月間スケジュール抽出クエリー" localSheetId="5">#REF!</definedName>
+    <definedName name="月間スケジュール抽出クエリー" localSheetId="1">#REF!</definedName>
     <definedName name="月間スケジュール抽出クエリー">#REF!</definedName>
-    <definedName name="松阪SV台数" localSheetId="5">#REF!</definedName>
+    <definedName name="松阪SV台数" localSheetId="1">#REF!</definedName>
     <definedName name="松阪SV台数">#REF!</definedName>
     <definedName name="検出漏れ原因_テスト">OFFSET([9]区分値!$CC$3,0,0,COUNTA([9]区分値!$CC$1:$CC$65536)-2,1)</definedName>
     <definedName name="検出漏れ原因_成果物レビュー">OFFSET([9]区分値!$BZ$3,0,0,COUNTA([9]区分値!$BZ$1:$BZ$65536)-2,1)</definedName>
-    <definedName name="検収日" localSheetId="5">#REF!</definedName>
+    <definedName name="検収日" localSheetId="1">#REF!</definedName>
     <definedName name="検収日">#REF!</definedName>
-    <definedName name="検査の共有" localSheetId="5">#REF!</definedName>
+    <definedName name="検査の共有" localSheetId="1">#REF!</definedName>
     <definedName name="検査の共有">#REF!</definedName>
-    <definedName name="検査の自動削除" localSheetId="5">#REF!</definedName>
+    <definedName name="検査の自動削除" localSheetId="1">#REF!</definedName>
     <definedName name="検査の自動削除">#REF!</definedName>
     <definedName name="機能性">Characteristics!$D$3:$D$6</definedName>
     <definedName name="津SV台数">'[12]#REF'!$E$52</definedName>
     <definedName name="発生事象_テスト">OFFSET([9]区分値!$BJ$4,0,0,COUNTA([9]区分値!$BJ$1:$BJ$65536)-3,1)</definedName>
     <definedName name="発生事象_レビュー">OFFSET([9]区分値!$BG$4,0,0,COUNTA([9]区分値!$BG$1:$BG$65536)-3,1)</definedName>
-    <definedName name="発行年月日" localSheetId="5">#REF!</definedName>
+    <definedName name="発行年月日" localSheetId="1">#REF!</definedName>
     <definedName name="発行年月日">#REF!</definedName>
-    <definedName name="県" localSheetId="5">#REF!</definedName>
+    <definedName name="県" localSheetId="1">#REF!</definedName>
     <definedName name="県">#REF!</definedName>
-    <definedName name="県庁SV①" localSheetId="5">#REF!</definedName>
+    <definedName name="県庁SV①" localSheetId="1">#REF!</definedName>
     <definedName name="県庁SV①">#REF!</definedName>
-    <definedName name="県庁SV①台数" localSheetId="5">#REF!</definedName>
+    <definedName name="県庁SV①台数" localSheetId="1">#REF!</definedName>
     <definedName name="県庁SV①台数">#REF!</definedName>
-    <definedName name="県庁SV②台数" localSheetId="5">#REF!</definedName>
+    <definedName name="県庁SV②台数" localSheetId="1">#REF!</definedName>
     <definedName name="県庁SV②台数">#REF!</definedName>
-    <definedName name="確定度" localSheetId="5">#REF!</definedName>
+    <definedName name="確定度" localSheetId="1">#REF!</definedName>
     <definedName name="確定度">#REF!</definedName>
     <definedName name="移植性">Characteristics!$I$3:$I$4</definedName>
     <definedName name="種別">[5]管理シート!$E$5:$E$30</definedName>
-    <definedName name="紀北SV台数" localSheetId="5">#REF!</definedName>
+    <definedName name="紀北SV台数" localSheetId="1">#REF!</definedName>
     <definedName name="紀北SV台数">#REF!</definedName>
-    <definedName name="紀南SV台数" localSheetId="5">#REF!</definedName>
+    <definedName name="紀南SV台数" localSheetId="1">#REF!</definedName>
     <definedName name="紀南SV台数">#REF!</definedName>
-    <definedName name="見積伝票番号" localSheetId="5">#REF!</definedName>
+    <definedName name="見積伝票番号" localSheetId="1">#REF!</definedName>
     <definedName name="見積伝票番号">#REF!</definedName>
-    <definedName name="見積金額合計" localSheetId="5">#REF!</definedName>
+    <definedName name="見積金額合計" localSheetId="1">#REF!</definedName>
     <definedName name="見積金額合計">#REF!</definedName>
-    <definedName name="計数入力サーバＨＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="計数入力サーバＨＷ" localSheetId="1">#REF!</definedName>
     <definedName name="計数入力サーバＨＷ">#REF!</definedName>
-    <definedName name="計数入力サーバＨＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="計数入力サーバＨＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="計数入力サーバＨＷ保守">#REF!</definedName>
-    <definedName name="計数入力サーバＳＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="計数入力サーバＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="計数入力サーバＳＷ">#REF!</definedName>
-    <definedName name="計数入力サーバＳＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="計数入力サーバＳＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="計数入力サーバＳＷ保守">#REF!</definedName>
-    <definedName name="運用保守サーバＨＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="運用保守サーバＨＷ" localSheetId="1">#REF!</definedName>
     <definedName name="運用保守サーバＨＷ">#REF!</definedName>
-    <definedName name="運用保守サーバＨＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="運用保守サーバＨＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="運用保守サーバＨＷ保守">#REF!</definedName>
-    <definedName name="運用保守サーバＳＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="運用保守サーバＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="運用保守サーバＳＷ">#REF!</definedName>
-    <definedName name="開発サーバＨＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="開発サーバＨＷ" localSheetId="1">#REF!</definedName>
     <definedName name="開発サーバＨＷ">#REF!</definedName>
-    <definedName name="開発サーバＨＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="開発サーバＨＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="開発サーバＨＷ保守">#REF!</definedName>
-    <definedName name="開発サーバＳＷ" localSheetId="5">#REF!</definedName>
+    <definedName name="開発サーバＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="開発サーバＳＷ">#REF!</definedName>
-    <definedName name="開発サーバＳＷ保守" localSheetId="5">#REF!</definedName>
+    <definedName name="開発サーバＳＷ保守" localSheetId="1">#REF!</definedName>
     <definedName name="開発サーバＳＷ保守">#REF!</definedName>
-    <definedName name="電話番号" localSheetId="5">#REF!</definedName>
+    <definedName name="電話番号" localSheetId="1">#REF!</definedName>
     <definedName name="電話番号">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -919,7 +906,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="158">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1389,57 +1376,51 @@
     <t>Reading Screen</t>
   </si>
   <si>
-    <t xml:space="preserve">- Items: 
-+ N3's reading link
-+ N2's reading link
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>Content of reading page</t>
+  </si>
+  <si>
+    <t>1.2.2.2</t>
+  </si>
+  <si>
+    <t>Reading is displayed</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Display answer of question</t>
+  </si>
+  <si>
+    <t>Click "Đáp án" section</t>
+  </si>
+  <si>
+    <t>1.2.2.3</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Click "Câu hỏi liên quan" section</t>
+  </si>
+  <si>
+    <t>Display question of reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Display full item ( reading's link)
+- Title is centered
+- All items is left-aligned
+- Text's color is black
 </t>
   </si>
   <si>
-    <t>1.1.1.3</t>
-  </si>
-  <si>
-    <t>Content of reading page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Items: 
-+ Back link
-+ Reading lesson field
-+ Question field
-+ Answer field
+    <t xml:space="preserve">- Display full item
+- Title is centered
+- All items is left-aligned
+- Text's color is black
 </t>
-  </si>
-  <si>
-    <t>1.2.2.2</t>
-  </si>
-  <si>
-    <t>Reading is displayed</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Display answer of question</t>
-  </si>
-  <si>
-    <t>Click "Đáp án" section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Items: 
-+ N4&amp;N5's reading link
-+ Test's reading link
-</t>
-  </si>
-  <si>
-    <t>1.2.2.3</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Click "Câu hỏi liên quan" section</t>
-  </si>
-  <si>
-    <t>Display question of reading</t>
   </si>
 </sst>
 </file>
@@ -3436,6 +3417,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3453,27 +3455,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6699,14 +6680,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6721,12 +6702,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6738,12 +6719,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6752,15 +6733,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6769,11 +6750,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6796,10 +6777,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6817,10 +6798,10 @@
       <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6834,8 +6815,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6843,8 +6824,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6852,8 +6833,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6861,8 +6842,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6870,8 +6851,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6879,8 +6860,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6888,12 +6869,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6901,6 +6876,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6914,10 +6895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7113,7 +7094,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="67.5">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -7138,20 +7119,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="44" customFormat="1" ht="94.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="44" customFormat="1" ht="67.5">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -7166,7 +7147,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1">
@@ -7276,20 +7257,20 @@
         <v>141</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -7301,25 +7282,39 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="44" customFormat="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="72"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1">
       <c r="A19" s="64"/>
@@ -7335,35 +7330,35 @@
       <c r="K19" s="66"/>
       <c r="L19" s="72"/>
     </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-    </row>
-    <row r="22" spans="1:12" s="44" customFormat="1">
+    <row r="20" spans="1:12" s="44" customFormat="1">
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="72"/>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+    </row>
+    <row r="22" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A22" s="64"/>
       <c r="B22" s="65"/>
       <c r="C22" s="65"/>
@@ -7375,11 +7370,11 @@
       <c r="I22" s="67"/>
       <c r="J22" s="68"/>
       <c r="K22" s="66"/>
-      <c r="L22" s="72"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1">
       <c r="A23" s="64"/>
-      <c r="B23" s="73"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="66"/>
@@ -7398,7 +7393,7 @@
       <c r="D24" s="65"/>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="65"/>
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
@@ -7407,17 +7402,17 @@
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1">
       <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="65"/>
       <c r="I25" s="67"/>
       <c r="J25" s="68"/>
       <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="L25" s="72"/>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1">
       <c r="A26" s="64"/>
@@ -7431,30 +7426,30 @@
       <c r="I26" s="67"/>
       <c r="J26" s="68"/>
       <c r="K26" s="66"/>
-      <c r="L26" s="74"/>
-    </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="L26" s="66"/>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1">
       <c r="A27" s="64"/>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
-      <c r="G27" s="75"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="65"/>
       <c r="I27" s="67"/>
       <c r="J27" s="68"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-    </row>
-    <row r="28" spans="1:12" s="44" customFormat="1">
+      <c r="K27" s="66"/>
+      <c r="L27" s="74"/>
+    </row>
+    <row r="28" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="64"/>
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
       <c r="D28" s="65"/>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
-      <c r="G28" s="71"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="65"/>
       <c r="I28" s="67"/>
       <c r="J28" s="68"/>
@@ -7531,7 +7526,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="72"/>
     </row>
-    <row r="34" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="34" spans="1:12" s="44" customFormat="1">
       <c r="A34" s="64"/>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
@@ -7545,7 +7540,7 @@
       <c r="K34" s="72"/>
       <c r="L34" s="72"/>
     </row>
-    <row r="35" spans="1:12" s="44" customFormat="1">
+    <row r="35" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="64"/>
       <c r="B35" s="65"/>
       <c r="C35" s="65"/>
@@ -7630,32 +7625,32 @@
       <c r="L40" s="72"/>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
     </row>
     <row r="42" spans="1:12" s="44" customFormat="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
     </row>
     <row r="43" spans="1:12" s="44" customFormat="1">
       <c r="A43" s="64"/>
@@ -7669,11 +7664,11 @@
       <c r="I43" s="67"/>
       <c r="J43" s="68"/>
       <c r="K43" s="66"/>
-      <c r="L43" s="72"/>
+      <c r="L43" s="66"/>
     </row>
     <row r="44" spans="1:12" s="44" customFormat="1">
       <c r="A44" s="64"/>
-      <c r="B44" s="73"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="65"/>
       <c r="D44" s="65"/>
       <c r="E44" s="66"/>
@@ -7692,7 +7687,7 @@
       <c r="D45" s="65"/>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="65"/>
       <c r="I45" s="67"/>
       <c r="J45" s="68"/>
@@ -7799,8 +7794,8 @@
     </row>
     <row r="53" spans="1:12" s="44" customFormat="1">
       <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="73"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="65"/>
       <c r="E53" s="66"/>
       <c r="F53" s="66"/>
@@ -7809,14 +7804,14 @@
       <c r="I53" s="67"/>
       <c r="J53" s="68"/>
       <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
+      <c r="L53" s="72"/>
     </row>
     <row r="54" spans="1:12" s="44" customFormat="1">
       <c r="A54" s="64"/>
-      <c r="B54" s="73"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="73"/>
       <c r="D54" s="65"/>
-      <c r="E54" s="71"/>
+      <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
       <c r="H54" s="65"/>
@@ -7842,15 +7837,15 @@
     <row r="56" spans="1:12" s="44" customFormat="1">
       <c r="A56" s="64"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="65"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="65"/>
       <c r="E56" s="71"/>
       <c r="F56" s="66"/>
-      <c r="G56" s="71"/>
+      <c r="G56" s="66"/>
       <c r="H56" s="65"/>
       <c r="I56" s="67"/>
       <c r="J56" s="68"/>
-      <c r="K56" s="72"/>
+      <c r="K56" s="66"/>
       <c r="L56" s="66"/>
     </row>
     <row r="57" spans="1:12" s="44" customFormat="1">
@@ -7864,16 +7859,16 @@
       <c r="H57" s="65"/>
       <c r="I57" s="67"/>
       <c r="J57" s="68"/>
-      <c r="K57" s="66"/>
+      <c r="K57" s="72"/>
       <c r="L57" s="66"/>
     </row>
     <row r="58" spans="1:12" s="44" customFormat="1">
       <c r="A58" s="64"/>
-      <c r="B58" s="65"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
       <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
+      <c r="F58" s="66"/>
       <c r="G58" s="71"/>
       <c r="H58" s="65"/>
       <c r="I58" s="67"/>
@@ -7896,32 +7891,32 @@
       <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" s="44" customFormat="1">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="69"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
     </row>
     <row r="61" spans="1:12" s="44" customFormat="1">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="69"/>
     </row>
     <row r="62" spans="1:12" s="44" customFormat="1">
       <c r="A62" s="38"/>
@@ -7934,7 +7929,7 @@
       <c r="H62" s="65"/>
       <c r="I62" s="67"/>
       <c r="J62" s="68"/>
-      <c r="K62" s="77"/>
+      <c r="K62" s="76"/>
       <c r="L62" s="76"/>
     </row>
     <row r="63" spans="1:12" s="44" customFormat="1">
@@ -7943,7 +7938,7 @@
       <c r="C63" s="68"/>
       <c r="D63" s="65"/>
       <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="76"/>
       <c r="H63" s="65"/>
       <c r="I63" s="67"/>
@@ -7980,32 +7975,32 @@
       <c r="L65" s="76"/>
     </row>
     <row r="66" spans="1:13" s="44" customFormat="1">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="69"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="76"/>
     </row>
     <row r="67" spans="1:13" s="44" customFormat="1">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="76"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="69"/>
     </row>
     <row r="68" spans="1:13" s="44" customFormat="1">
       <c r="A68" s="38"/>
@@ -8022,33 +8017,32 @@
       <c r="L68" s="76"/>
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
-      <c r="A69" s="69"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="69"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="76"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="76"/>
-      <c r="M70" s="37"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="70"/>
+      <c r="L70" s="69"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1">
       <c r="A71" s="38"/>
@@ -8065,77 +8059,78 @@
       <c r="L71" s="76"/>
       <c r="M71" s="37"/>
     </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="69"/>
-      <c r="M72" s="44"/>
+    <row r="72" spans="1:13" s="44" customFormat="1">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="37"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="64"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A73" s="69"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="44"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="64"/>
       <c r="B74" s="73"/>
       <c r="C74" s="65"/>
       <c r="D74" s="65"/>
       <c r="E74" s="66"/>
       <c r="F74" s="66"/>
-      <c r="G74" s="71"/>
+      <c r="G74" s="66"/>
       <c r="H74" s="65"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="68"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="78"/>
       <c r="K74" s="66"/>
       <c r="L74" s="66"/>
-      <c r="M74" s="37"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="69"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="69"/>
+    </row>
+    <row r="75" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A75" s="64"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="37"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="70"/>
+      <c r="L76" s="69"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="38"/>
@@ -8164,7 +8159,6 @@
       <c r="J78" s="38"/>
       <c r="K78" s="38"/>
       <c r="L78" s="38"/>
-      <c r="M78" s="44"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="38"/>
@@ -8179,8 +8173,9 @@
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
       <c r="L79" s="38"/>
-    </row>
-    <row r="80" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M79" s="44"/>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -8193,9 +8188,8 @@
       <c r="J80" s="38"/>
       <c r="K80" s="38"/>
       <c r="L80" s="38"/>
-      <c r="M80" s="37"/>
-    </row>
-    <row r="81" spans="1:13">
+    </row>
+    <row r="81" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
@@ -8208,7 +8202,7 @@
       <c r="J81" s="38"/>
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
-      <c r="M81" s="44"/>
+      <c r="M81" s="37"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="38"/>
@@ -8223,8 +8217,9 @@
       <c r="J82" s="38"/>
       <c r="K82" s="38"/>
       <c r="L82" s="38"/>
-    </row>
-    <row r="83" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M82" s="44"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -8237,9 +8232,8 @@
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" s="38"/>
-      <c r="M83" s="37"/>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -8252,7 +8246,7 @@
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
       <c r="L84" s="38"/>
-      <c r="M84" s="44"/>
+      <c r="M84" s="37"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="38"/>
@@ -8269,28 +8263,28 @@
       <c r="L85" s="38"/>
       <c r="M85" s="44"/>
     </row>
-    <row r="86" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A86" s="64"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="66"/>
-      <c r="M86" s="37"/>
+    <row r="86" spans="1:13">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="44"/>
     </row>
     <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A87" s="64"/>
-      <c r="B87" s="65"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="65"/>
       <c r="D87" s="65"/>
       <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="71"/>
       <c r="H87" s="65"/>
       <c r="I87" s="67"/>
@@ -8299,15 +8293,30 @@
       <c r="L87" s="66"/>
       <c r="M87" s="37"/>
     </row>
-    <row r="95" spans="1:13" ht="37.5" customHeight="1"/>
+    <row r="88" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A88" s="64"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="66"/>
+      <c r="L88" s="66"/>
+      <c r="M88" s="37"/>
+    </row>
     <row r="96" spans="1:13" ht="37.5" customHeight="1"/>
     <row r="97" ht="37.5" customHeight="1"/>
     <row r="98" ht="37.5" customHeight="1"/>
-    <row r="100" ht="18" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="105" ht="30" customHeight="1"/>
-    <row r="109" ht="44.25" customHeight="1"/>
-    <row r="110" ht="45" customHeight="1"/>
+    <row r="99" ht="37.5" customHeight="1"/>
+    <row r="101" ht="18" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="106" ht="30" customHeight="1"/>
+    <row r="110" ht="44.25" customHeight="1"/>
+    <row r="111" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -8325,20 +8334,20 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I72 I41 I69 I66 I60 I75">
-      <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J62:J66 J68:J69 J75 J71:J72 J43:J60 J22:J41 J87:J88 J8:J11 J14:J20">
+      <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J72 J41 J69 J66 J60 J75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I87:I88 I22:I41 I43:I60 I71:I72 I68:I69 I62:I66 I75 I8:I11 I14:I20">
+      <formula1>品質特性</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H87:H88 H22:H73 H75:H76 H8:H11 H14:H20">
+      <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J73 J42 J70 J67 J61 J76">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H86:H87 H21:H72 H74:H75 H8:H11 H14:H19">
-      <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I86:I87 I21:I40 I42:I59 I70:I71 I67:I68 I61:I65 I74 I8:I11 I14:I19">
-      <formula1>品質特性</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J61:J65 J67:J68 J74 J70:J71 J42:J59 J21:J40 J86:J87 J8:J11 J14:J19">
-      <formula1>INDIRECT($I8)</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I73 I42 I70 I67 I61 I76">
+      <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9056,1467 +9065,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M111"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="7.875" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="37" customWidth="1"/>
-    <col min="5" max="5" width="9" style="37"/>
-    <col min="6" max="6" width="9.625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="37" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="37.75" style="37" customWidth="1"/>
-    <col min="12" max="12" width="42.875" style="37" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="38" customFormat="1">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-    </row>
-    <row r="2" spans="1:12" s="38" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-    </row>
-    <row r="3" spans="1:12" s="39" customFormat="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-    </row>
-    <row r="4" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="113" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-    </row>
-    <row r="6" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41">
-        <v>1</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-    </row>
-    <row r="8" spans="1:12" s="44" customFormat="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="55"/>
-    </row>
-    <row r="9" spans="1:12" s="44" customFormat="1" ht="54">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="44" customFormat="1" ht="94.5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="44" customFormat="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-    </row>
-    <row r="13" spans="1:12" s="44" customFormat="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="55"/>
-    </row>
-    <row r="14" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="55"/>
-    </row>
-    <row r="16" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" s="62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="72"/>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="72"/>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-    </row>
-    <row r="22" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="72"/>
-    </row>
-    <row r="24" spans="1:12" s="44" customFormat="1">
-      <c r="A24" s="64"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="72"/>
-    </row>
-    <row r="25" spans="1:12" s="44" customFormat="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="72"/>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-    </row>
-    <row r="27" spans="1:12" s="44" customFormat="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="74"/>
-    </row>
-    <row r="28" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-    </row>
-    <row r="29" spans="1:12" s="44" customFormat="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-    </row>
-    <row r="30" spans="1:12" s="44" customFormat="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-    </row>
-    <row r="31" spans="1:12" s="44" customFormat="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-    </row>
-    <row r="32" spans="1:12" s="44" customFormat="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-    </row>
-    <row r="33" spans="1:12" s="44" customFormat="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-    </row>
-    <row r="34" spans="1:12" s="44" customFormat="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-    </row>
-    <row r="35" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-    </row>
-    <row r="36" spans="1:12" s="44" customFormat="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-    </row>
-    <row r="37" spans="1:12" s="44" customFormat="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-    </row>
-    <row r="38" spans="1:12" s="44" customFormat="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-    </row>
-    <row r="39" spans="1:12" s="44" customFormat="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-    </row>
-    <row r="40" spans="1:12" s="44" customFormat="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-    </row>
-    <row r="41" spans="1:12" s="44" customFormat="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-    </row>
-    <row r="42" spans="1:12" s="44" customFormat="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-    </row>
-    <row r="43" spans="1:12" s="44" customFormat="1">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-    </row>
-    <row r="44" spans="1:12" s="44" customFormat="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="72"/>
-    </row>
-    <row r="45" spans="1:12" s="44" customFormat="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="72"/>
-    </row>
-    <row r="46" spans="1:12" s="44" customFormat="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="72"/>
-    </row>
-    <row r="47" spans="1:12" s="44" customFormat="1">
-      <c r="A47" s="64"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="72"/>
-    </row>
-    <row r="48" spans="1:12" s="44" customFormat="1">
-      <c r="A48" s="64"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="72"/>
-    </row>
-    <row r="49" spans="1:12" s="44" customFormat="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="72"/>
-    </row>
-    <row r="50" spans="1:12" s="44" customFormat="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="72"/>
-    </row>
-    <row r="51" spans="1:12" s="44" customFormat="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="72"/>
-    </row>
-    <row r="52" spans="1:12" s="44" customFormat="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="72"/>
-    </row>
-    <row r="53" spans="1:12" s="44" customFormat="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="72"/>
-    </row>
-    <row r="54" spans="1:12" s="44" customFormat="1">
-      <c r="A54" s="64"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-    </row>
-    <row r="55" spans="1:12" s="44" customFormat="1">
-      <c r="A55" s="64"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-    </row>
-    <row r="56" spans="1:12" s="44" customFormat="1">
-      <c r="A56" s="64"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-    </row>
-    <row r="57" spans="1:12" s="44" customFormat="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="66"/>
-    </row>
-    <row r="58" spans="1:12" s="44" customFormat="1">
-      <c r="A58" s="64"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-    </row>
-    <row r="59" spans="1:12" s="44" customFormat="1">
-      <c r="A59" s="64"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-    </row>
-    <row r="60" spans="1:12" s="44" customFormat="1">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-    </row>
-    <row r="61" spans="1:12" s="44" customFormat="1">
-      <c r="A61" s="69"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="69"/>
-    </row>
-    <row r="62" spans="1:12" s="44" customFormat="1">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-    </row>
-    <row r="63" spans="1:12" s="44" customFormat="1">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="76"/>
-    </row>
-    <row r="64" spans="1:12" s="44" customFormat="1">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="76"/>
-    </row>
-    <row r="65" spans="1:13" s="44" customFormat="1">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="76"/>
-    </row>
-    <row r="66" spans="1:13" s="44" customFormat="1">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="76"/>
-    </row>
-    <row r="67" spans="1:13" s="44" customFormat="1">
-      <c r="A67" s="69"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
-      <c r="J67" s="70"/>
-      <c r="K67" s="70"/>
-      <c r="L67" s="69"/>
-    </row>
-    <row r="68" spans="1:13" s="44" customFormat="1">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="76"/>
-    </row>
-    <row r="69" spans="1:13" s="44" customFormat="1">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="76"/>
-    </row>
-    <row r="70" spans="1:13" s="44" customFormat="1">
-      <c r="A70" s="69"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
-      <c r="K70" s="70"/>
-      <c r="L70" s="69"/>
-    </row>
-    <row r="71" spans="1:13" s="44" customFormat="1">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="37"/>
-    </row>
-    <row r="72" spans="1:13" s="44" customFormat="1">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="76"/>
-      <c r="M72" s="37"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="69"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="44"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="64"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66"/>
-    </row>
-    <row r="75" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A75" s="64"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="66"/>
-      <c r="M75" s="37"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="69"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="70"/>
-      <c r="L76" s="69"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="44"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-    </row>
-    <row r="81" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="37"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="44"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-    </row>
-    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="37"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="44"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="44"/>
-    </row>
-    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A87" s="64"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
-      <c r="M87" s="37"/>
-    </row>
-    <row r="88" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A88" s="64"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="66"/>
-      <c r="L88" s="66"/>
-      <c r="M88" s="37"/>
-    </row>
-    <row r="96" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="97" ht="37.5" customHeight="1"/>
-    <row r="98" ht="37.5" customHeight="1"/>
-    <row r="99" ht="37.5" customHeight="1"/>
-    <row r="101" ht="18" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="106" ht="30" customHeight="1"/>
-    <row r="110" ht="44.25" customHeight="1"/>
-    <row r="111" ht="45" customHeight="1"/>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="12">
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-  </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J62:J66 J68:J69 J75 J71:J72 J43:J60 J22:J41 J87:J88 J8:J11 J14:J20">
-      <formula1>INDIRECT($I8)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I87:I88 I22:I41 I43:I60 I71:I72 I68:I69 I62:I66 I75 I8:I11 I14:I20">
-      <formula1>品質特性</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H87:H88 H22:H73 H75:H76 H8:H11 H14:H20">
-      <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J73 J42 J70 J67 J61 J76">
-      <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I73 I42 I70 I67 I61 I76">
-      <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
@@ -3417,6 +3417,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3437,24 +3455,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3851,22 +3851,22 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3886,16 +3886,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="180975" y="581025"/>
-          <a:ext cx="5276850" cy="2705100"/>
+          <a:off x="581026" y="523875"/>
+          <a:ext cx="4848224" cy="3381375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -3903,16 +3900,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3922,19 +3909,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>79571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3954,8 +3941,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5886450" y="323850"/>
-          <a:ext cx="6124575" cy="3562350"/>
+          <a:off x="5762625" y="285751"/>
+          <a:ext cx="5514975" cy="3070420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6680,14 +6667,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6702,12 +6689,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6719,12 +6706,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6733,15 +6720,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6750,11 +6737,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6777,10 +6764,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6798,10 +6785,10 @@
       <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6815,8 +6802,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6824,8 +6811,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6833,8 +6820,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6842,8 +6829,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6851,8 +6838,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6860,8 +6847,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6869,6 +6856,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6876,12 +6869,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8361,7 +8348,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Reading_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1341,9 +1341,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1421,6 +1418,9 @@
 - All items is left-aligned
 - Text's color is black
 </t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3417,6 +3417,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3434,27 +3455,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6647,8 +6647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6667,14 +6667,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6689,12 +6689,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6706,12 +6706,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6720,28 +6720,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="C6" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6764,10 +6764,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6783,12 +6783,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6797,13 +6797,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6811,8 +6811,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6820,8 +6820,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6829,8 +6829,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6838,8 +6838,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6847,8 +6847,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6856,12 +6856,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6869,6 +6863,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6884,7 +6884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -7006,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -7078,7 +7078,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="67.5">
@@ -7106,20 +7106,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="67.5">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -7134,7 +7134,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1">
@@ -7164,7 +7164,7 @@
       <c r="D13" s="60"/>
       <c r="E13" s="61"/>
       <c r="F13" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
@@ -7183,7 +7183,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -7195,10 +7195,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>141</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -7210,7 +7210,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -7229,7 +7229,7 @@
       <c r="E16" s="63"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -7241,23 +7241,23 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -7269,23 +7269,23 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="62" t="s">
         <v>154</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="63"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -7297,10 +7297,10 @@
         <v>37</v>
       </c>
       <c r="K18" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1">
@@ -8355,7 +8355,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
